--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2860543.713265202</v>
+        <v>2855712.913753154</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2711628.074649626</v>
+        <v>2711628.074649628</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>911756.9728896308</v>
+        <v>911756.9728896305</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -709,10 +709,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="T2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -752,55 +752,55 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>10.5193474360557</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,55 +1214,55 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="T10" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="U10" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="V10" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288.0511261499432</v>
+        <v>253.36482800378</v>
       </c>
       <c r="C11" t="n">
         <v>276.062443107625</v>
@@ -1384,13 +1384,13 @@
         <v>307.9577008100356</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>309.3301514203407</v>
       </c>
       <c r="H11" t="n">
         <v>221.6976136440768</v>
       </c>
       <c r="I11" t="n">
-        <v>47.41614036880203</v>
+        <v>47.41614036880195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.52508371286572</v>
+        <v>70.52508371286568</v>
       </c>
       <c r="T11" t="n">
         <v>117.6084011590467</v>
       </c>
       <c r="U11" t="n">
-        <v>150.2396395672808</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>231.5575033901223</v>
       </c>
       <c r="W11" t="n">
-        <v>124.4042137068973</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>276.1578611008258</v>
@@ -1466,10 +1466,10 @@
         <v>127.1411512746948</v>
       </c>
       <c r="H12" t="n">
-        <v>96.04049522805812</v>
+        <v>96.04049522805811</v>
       </c>
       <c r="I12" t="n">
-        <v>57.36732183100858</v>
+        <v>57.36732183100855</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.55615529889997</v>
+        <v>40.5561552988999</v>
       </c>
       <c r="S12" t="n">
         <v>145.6979404549165</v>
@@ -1542,13 +1542,13 @@
         <v>48.90387045158491</v>
       </c>
       <c r="G13" t="n">
-        <v>64.92700984475651</v>
+        <v>64.9270098447565</v>
       </c>
       <c r="H13" t="n">
         <v>53.49031411420174</v>
       </c>
       <c r="I13" t="n">
-        <v>33.14384062038844</v>
+        <v>33.143840620389</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66338358832752</v>
+        <v>34.66338358832746</v>
       </c>
       <c r="S13" t="n">
-        <v>105.1366242691459</v>
+        <v>105.1366242691458</v>
       </c>
       <c r="T13" t="n">
         <v>127.7203241864656</v>
@@ -1612,7 +1612,7 @@
         <v>276.062443107625</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>267.0437471521529</v>
       </c>
       <c r="E14" t="n">
         <v>288.7858847220584</v>
@@ -1624,7 +1624,7 @@
         <v>309.3301514203407</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.6976136440768</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.52508371286567</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>117.6084011590467</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.2396395672808</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>231.5575033901223</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.8576028680792</v>
+        <v>144.8663715876491</v>
       </c>
       <c r="X14" t="n">
         <v>276.1578611008258</v>
       </c>
       <c r="Y14" t="n">
-        <v>94.37396058350915</v>
+        <v>287.5544588970246</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>96.04049522805811</v>
       </c>
       <c r="I15" t="n">
-        <v>57.36732183100854</v>
+        <v>57.36732183100855</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>48.90387045158491</v>
       </c>
       <c r="G16" t="n">
-        <v>64.9270098447565</v>
+        <v>64.92700984475651</v>
       </c>
       <c r="H16" t="n">
-        <v>53.49031411420174</v>
+        <v>53.49031411420173</v>
       </c>
       <c r="I16" t="n">
-        <v>33.143840620389</v>
+        <v>33.14384062038901</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66338358832752</v>
+        <v>34.66338358832748</v>
       </c>
       <c r="S16" t="n">
         <v>105.1366242691459</v>
@@ -1821,7 +1821,7 @@
         <v>127.7203241864656</v>
       </c>
       <c r="U16" t="n">
-        <v>182.2526375068131</v>
+        <v>182.252637506813</v>
       </c>
       <c r="V16" t="n">
         <v>156.0759734242659</v>
@@ -1846,13 +1846,13 @@
         <v>239.3424219278185</v>
       </c>
       <c r="C17" t="n">
-        <v>227.3537388855003</v>
+        <v>227.3537388855002</v>
       </c>
       <c r="D17" t="n">
-        <v>218.3350429300283</v>
+        <v>218.3350429300282</v>
       </c>
       <c r="E17" t="n">
-        <v>240.0771804999338</v>
+        <v>240.0771804999337</v>
       </c>
       <c r="F17" t="n">
         <v>259.2489965879109</v>
@@ -1861,7 +1861,7 @@
         <v>260.6214471982161</v>
       </c>
       <c r="H17" t="n">
-        <v>172.9889094219522</v>
+        <v>172.9889094219521</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>21.81637949074102</v>
+        <v>21.81637949074042</v>
       </c>
       <c r="T17" t="n">
-        <v>68.89969693692204</v>
+        <v>68.899696936922</v>
       </c>
       <c r="U17" t="n">
-        <v>101.5309353451561</v>
+        <v>101.5309353451571</v>
       </c>
       <c r="V17" t="n">
-        <v>182.8487991679977</v>
+        <v>182.8487991679976</v>
       </c>
       <c r="W17" t="n">
-        <v>208.1488986459546</v>
+        <v>208.1488986459545</v>
       </c>
       <c r="X17" t="n">
-        <v>227.4491568787012</v>
+        <v>227.4491568787011</v>
       </c>
       <c r="Y17" t="n">
-        <v>238.8457546749</v>
+        <v>238.8457546748999</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>96.04049522805811</v>
       </c>
       <c r="I18" t="n">
-        <v>57.36732183100854</v>
+        <v>57.36732183100855</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.95913280251563</v>
+        <v>30.95913280251557</v>
       </c>
       <c r="C19" t="n">
-        <v>17.15912764791611</v>
+        <v>17.15912764791605</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7804920454944977</v>
+        <v>0.7804920454944408</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1951662294602556</v>
+        <v>0.1951662294601988</v>
       </c>
       <c r="G19" t="n">
-        <v>16.21830562263186</v>
+        <v>16.2183056226318</v>
       </c>
       <c r="H19" t="n">
-        <v>11.65860836770037</v>
+        <v>4.781609892077019</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6.876998475623856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>56.42792004702125</v>
+        <v>56.4279200470212</v>
       </c>
       <c r="T19" t="n">
-        <v>79.01161996434091</v>
+        <v>79.01161996434085</v>
       </c>
       <c r="U19" t="n">
-        <v>133.5439332846884</v>
+        <v>133.5439332846883</v>
       </c>
       <c r="V19" t="n">
         <v>107.3672692021412</v>
       </c>
       <c r="W19" t="n">
-        <v>132.5341552727545</v>
+        <v>132.5341552727544</v>
       </c>
       <c r="X19" t="n">
-        <v>78.17925726855759</v>
+        <v>78.17925726855754</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.05412502462528</v>
+        <v>69.05412502462522</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>239.3424219278185</v>
       </c>
       <c r="C20" t="n">
-        <v>227.3537388855003</v>
+        <v>227.3537388855002</v>
       </c>
       <c r="D20" t="n">
-        <v>218.3350429300283</v>
+        <v>218.3350429300282</v>
       </c>
       <c r="E20" t="n">
-        <v>240.0771804999338</v>
+        <v>240.0771804999337</v>
       </c>
       <c r="F20" t="n">
         <v>259.2489965879109</v>
       </c>
       <c r="G20" t="n">
-        <v>260.6214471982161</v>
+        <v>260.621447198216</v>
       </c>
       <c r="H20" t="n">
-        <v>172.9889094219522</v>
+        <v>172.9889094219525</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>21.81637949074102</v>
+        <v>21.81637949074094</v>
       </c>
       <c r="T20" t="n">
-        <v>68.89969693692204</v>
+        <v>68.89969693692196</v>
       </c>
       <c r="U20" t="n">
-        <v>101.5309353451561</v>
+        <v>101.530935345156</v>
       </c>
       <c r="V20" t="n">
-        <v>182.8487991679977</v>
+        <v>182.8487991679976</v>
       </c>
       <c r="W20" t="n">
-        <v>208.1488986459546</v>
+        <v>208.1488986459545</v>
       </c>
       <c r="X20" t="n">
-        <v>227.4491568787012</v>
+        <v>227.4491568787011</v>
       </c>
       <c r="Y20" t="n">
-        <v>238.8457546749</v>
+        <v>238.8457546748999</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.95913280251563</v>
+        <v>30.95913280251554</v>
       </c>
       <c r="C22" t="n">
-        <v>17.15912764791611</v>
+        <v>17.15912764791602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7804920454944977</v>
+        <v>0.7804920454944124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1951662294602556</v>
+        <v>0.1951662294601704</v>
       </c>
       <c r="G22" t="n">
-        <v>16.21830562263186</v>
+        <v>16.21830562263177</v>
       </c>
       <c r="H22" t="n">
-        <v>4.781609892077075</v>
+        <v>4.78160989207699</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.876998475623188</v>
+        <v>6.876998475624426</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>56.42792004702125</v>
+        <v>56.42792004702117</v>
       </c>
       <c r="T22" t="n">
-        <v>79.01161996434091</v>
+        <v>79.01161996434082</v>
       </c>
       <c r="U22" t="n">
-        <v>133.5439332846884</v>
+        <v>133.5439332846883</v>
       </c>
       <c r="V22" t="n">
-        <v>107.3672692021412</v>
+        <v>107.3672692021411</v>
       </c>
       <c r="W22" t="n">
-        <v>132.5341552727545</v>
+        <v>132.5341552727544</v>
       </c>
       <c r="X22" t="n">
-        <v>78.17925726855759</v>
+        <v>78.17925726855751</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.05412502462528</v>
+        <v>69.05412502462519</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>239.3424219278185</v>
       </c>
       <c r="C23" t="n">
-        <v>227.3537388855003</v>
+        <v>227.3537388855002</v>
       </c>
       <c r="D23" t="n">
-        <v>218.3350429300283</v>
+        <v>218.3350429300282</v>
       </c>
       <c r="E23" t="n">
-        <v>240.0771804999338</v>
+        <v>240.0771804999337</v>
       </c>
       <c r="F23" t="n">
         <v>259.2489965879109</v>
       </c>
       <c r="G23" t="n">
-        <v>260.6214471982161</v>
+        <v>260.621447198216</v>
       </c>
       <c r="H23" t="n">
-        <v>172.9889094219522</v>
+        <v>172.9889094219521</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>21.81637949074101</v>
+        <v>21.81637949074093</v>
       </c>
       <c r="T23" t="n">
-        <v>68.89969693692206</v>
+        <v>68.89969693692196</v>
       </c>
       <c r="U23" t="n">
         <v>101.5309353451567</v>
       </c>
       <c r="V23" t="n">
-        <v>182.8487991679977</v>
+        <v>182.8487991679976</v>
       </c>
       <c r="W23" t="n">
-        <v>208.1488986459546</v>
+        <v>208.1488986459545</v>
       </c>
       <c r="X23" t="n">
-        <v>227.4491568787012</v>
+        <v>227.4491568787011</v>
       </c>
       <c r="Y23" t="n">
-        <v>238.8457546749</v>
+        <v>238.8457546748999</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.95913280251563</v>
+        <v>30.95913280251554</v>
       </c>
       <c r="C25" t="n">
-        <v>17.15912764791611</v>
+        <v>17.15912764791602</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7804920454944977</v>
+        <v>0.7804920454944124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1951662294602556</v>
+        <v>0.1951662294601704</v>
       </c>
       <c r="G25" t="n">
-        <v>16.21830562263186</v>
+        <v>16.21830562263177</v>
       </c>
       <c r="H25" t="n">
-        <v>4.781609892077075</v>
+        <v>4.78160989207699</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>56.42792004702125</v>
+        <v>56.42792004702117</v>
       </c>
       <c r="T25" t="n">
-        <v>79.01161996434091</v>
+        <v>79.01161996434082</v>
       </c>
       <c r="U25" t="n">
-        <v>133.5439332846884</v>
+        <v>140.4209317603126</v>
       </c>
       <c r="V25" t="n">
-        <v>107.3672692021412</v>
+        <v>107.3672692021411</v>
       </c>
       <c r="W25" t="n">
-        <v>132.5341552727545</v>
+        <v>132.5341552727544</v>
       </c>
       <c r="X25" t="n">
-        <v>78.17925726855759</v>
+        <v>78.17925726855751</v>
       </c>
       <c r="Y25" t="n">
-        <v>75.93112350024859</v>
+        <v>69.05412502462519</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>267.0437471521529</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>288.7858847220585</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>307.9577008100356</v>
       </c>
       <c r="G26" t="n">
-        <v>309.3301514203408</v>
+        <v>187.4790303938647</v>
       </c>
       <c r="H26" t="n">
-        <v>136.5193400664248</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.52508371286569</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>117.6084011590467</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>150.2396395672808</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>231.5575033901223</v>
@@ -2727,13 +2727,13 @@
         <v>48.90387045158494</v>
       </c>
       <c r="G28" t="n">
-        <v>64.92700984475654</v>
+        <v>64.92700984475653</v>
       </c>
       <c r="H28" t="n">
-        <v>53.49031411420176</v>
+        <v>53.49031411420177</v>
       </c>
       <c r="I28" t="n">
-        <v>33.14384062038903</v>
+        <v>33.14384062038923</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.6633835883275</v>
+        <v>34.66338358832749</v>
       </c>
       <c r="S28" t="n">
-        <v>105.1366242691459</v>
+        <v>105.1366242691458</v>
       </c>
       <c r="T28" t="n">
         <v>127.7203241864656</v>
       </c>
       <c r="U28" t="n">
-        <v>182.2526375068129</v>
+        <v>182.2526375068126</v>
       </c>
       <c r="V28" t="n">
         <v>156.0759734242659</v>
@@ -2800,13 +2800,13 @@
         <v>267.0437471521529</v>
       </c>
       <c r="E29" t="n">
-        <v>288.7858847220585</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>307.9577008100356</v>
       </c>
       <c r="G29" t="n">
-        <v>309.3301514203408</v>
+        <v>309.3301514203407</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.52508371286569</v>
+        <v>70.52508371286567</v>
       </c>
       <c r="T29" t="n">
-        <v>117.6084011590467</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>150.2396395672808</v>
@@ -2854,13 +2854,13 @@
         <v>231.5575033901223</v>
       </c>
       <c r="W29" t="n">
-        <v>256.8576028680793</v>
+        <v>256.8576028680792</v>
       </c>
       <c r="X29" t="n">
-        <v>103.4880745321811</v>
+        <v>222.3279015162623</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>287.5544588970246</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.66783702464031</v>
+        <v>79.66783702464028</v>
       </c>
       <c r="C31" t="n">
-        <v>65.86783187004079</v>
+        <v>65.86783187004076</v>
       </c>
       <c r="D31" t="n">
-        <v>49.48919626761918</v>
+        <v>49.48919626761915</v>
       </c>
       <c r="E31" t="n">
-        <v>48.43694612339863</v>
+        <v>48.4369461233986</v>
       </c>
       <c r="F31" t="n">
-        <v>48.90387045158494</v>
+        <v>48.90387045158491</v>
       </c>
       <c r="G31" t="n">
-        <v>64.92700984475653</v>
+        <v>64.9270098447565</v>
       </c>
       <c r="H31" t="n">
-        <v>53.49031411420177</v>
+        <v>53.49031411420174</v>
       </c>
       <c r="I31" t="n">
-        <v>33.14384062038923</v>
+        <v>33.143840620389</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66338358832749</v>
+        <v>34.66338358832746</v>
       </c>
       <c r="S31" t="n">
         <v>105.1366242691458</v>
@@ -3006,19 +3006,19 @@
         <v>127.7203241864656</v>
       </c>
       <c r="U31" t="n">
-        <v>182.2526375068126</v>
+        <v>182.2526375068133</v>
       </c>
       <c r="V31" t="n">
         <v>156.0759734242659</v>
       </c>
       <c r="W31" t="n">
-        <v>181.2428594948792</v>
+        <v>181.2428594948791</v>
       </c>
       <c r="X31" t="n">
-        <v>126.8879614906823</v>
+        <v>126.8879614906822</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.76282924675</v>
+        <v>117.7628292467499</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>239.3424219278185</v>
+        <v>239.3424219278184</v>
       </c>
       <c r="C32" t="n">
         <v>227.3537388855002</v>
@@ -3040,10 +3040,10 @@
         <v>240.0771804999337</v>
       </c>
       <c r="F32" t="n">
-        <v>259.2489965879109</v>
+        <v>259.2489965879108</v>
       </c>
       <c r="G32" t="n">
-        <v>260.6214471982161</v>
+        <v>260.6214471982159</v>
       </c>
       <c r="H32" t="n">
         <v>172.9889094219521</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>21.81637949074096</v>
+        <v>21.8163794907409</v>
       </c>
       <c r="T32" t="n">
-        <v>68.89969693692198</v>
+        <v>68.89969693692194</v>
       </c>
       <c r="U32" t="n">
         <v>101.5309353451567</v>
@@ -3097,7 +3097,7 @@
         <v>227.4491568787011</v>
       </c>
       <c r="Y32" t="n">
-        <v>238.8457546748999</v>
+        <v>238.8457546748998</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.95913280251557</v>
+        <v>30.95913280251551</v>
       </c>
       <c r="C34" t="n">
-        <v>17.15912764791605</v>
+        <v>17.15912764791599</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7804920454944408</v>
+        <v>0.780492045494384</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1951662294601988</v>
+        <v>0.1951662294601419</v>
       </c>
       <c r="G34" t="n">
-        <v>16.2183056226318</v>
+        <v>16.21830562263174</v>
       </c>
       <c r="H34" t="n">
-        <v>4.781609892077018</v>
+        <v>11.65860836770173</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>56.4279200470212</v>
+        <v>56.42792004702114</v>
       </c>
       <c r="T34" t="n">
-        <v>79.01161996434085</v>
+        <v>79.0116199643408</v>
       </c>
       <c r="U34" t="n">
         <v>133.5439332846883</v>
       </c>
       <c r="V34" t="n">
-        <v>114.244267677765</v>
+        <v>107.3672692021411</v>
       </c>
       <c r="W34" t="n">
         <v>132.5341552727544</v>
       </c>
       <c r="X34" t="n">
-        <v>78.17925726855754</v>
+        <v>78.17925726855748</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.05412502462522</v>
+        <v>69.05412502462516</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>227.3537388855003</v>
       </c>
       <c r="D35" t="n">
-        <v>218.3350429300282</v>
+        <v>218.3350429300283</v>
       </c>
       <c r="E35" t="n">
         <v>240.0771804999338</v>
@@ -3283,7 +3283,7 @@
         <v>260.6214471982161</v>
       </c>
       <c r="H35" t="n">
-        <v>172.9889094219521</v>
+        <v>172.9889094219522</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.81637949074099</v>
+        <v>21.81637949074101</v>
       </c>
       <c r="T35" t="n">
-        <v>68.89969693692241</v>
+        <v>68.89969693692206</v>
       </c>
       <c r="U35" t="n">
-        <v>101.5309353451562</v>
+        <v>101.5309353451567</v>
       </c>
       <c r="V35" t="n">
-        <v>182.8487991679976</v>
+        <v>182.8487991679977</v>
       </c>
       <c r="W35" t="n">
-        <v>208.1488986459545</v>
+        <v>208.1488986459546</v>
       </c>
       <c r="X35" t="n">
         <v>227.4491568787012</v>
       </c>
       <c r="Y35" t="n">
-        <v>238.8457546748999</v>
+        <v>238.8457546749</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.9591328025156</v>
+        <v>30.95913280251563</v>
       </c>
       <c r="C37" t="n">
-        <v>17.15912764791608</v>
+        <v>17.15912764791611</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7804920454944693</v>
+        <v>7.657490521117778</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1951662294602272</v>
+        <v>0.1951662294602556</v>
       </c>
       <c r="G37" t="n">
-        <v>16.21830562263183</v>
+        <v>16.21830562263186</v>
       </c>
       <c r="H37" t="n">
-        <v>4.781609892077046</v>
+        <v>4.781609892077075</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.42792004702122</v>
+        <v>56.42792004702125</v>
       </c>
       <c r="T37" t="n">
-        <v>85.88861843996438</v>
+        <v>79.01161996434091</v>
       </c>
       <c r="U37" t="n">
-        <v>133.5439332846883</v>
+        <v>133.5439332846884</v>
       </c>
       <c r="V37" t="n">
         <v>107.3672692021412</v>
       </c>
       <c r="W37" t="n">
-        <v>132.5341552727544</v>
+        <v>132.5341552727545</v>
       </c>
       <c r="X37" t="n">
-        <v>78.17925726855756</v>
+        <v>78.17925726855759</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.05412502462525</v>
+        <v>69.05412502462528</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>227.3537388855003</v>
       </c>
       <c r="D38" t="n">
-        <v>218.3350429300282</v>
+        <v>218.3350429300283</v>
       </c>
       <c r="E38" t="n">
         <v>240.0771804999338</v>
@@ -3520,7 +3520,7 @@
         <v>260.6214471982161</v>
       </c>
       <c r="H38" t="n">
-        <v>172.9889094219521</v>
+        <v>172.9889094219522</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.81637949074087</v>
+        <v>21.81637949074132</v>
       </c>
       <c r="T38" t="n">
-        <v>68.89969693692203</v>
+        <v>68.89969693692206</v>
       </c>
       <c r="U38" t="n">
-        <v>101.5309353451562</v>
+        <v>101.5309353451558</v>
       </c>
       <c r="V38" t="n">
-        <v>182.8487991679976</v>
+        <v>182.8487991679977</v>
       </c>
       <c r="W38" t="n">
-        <v>208.1488986459545</v>
+        <v>208.1488986459546</v>
       </c>
       <c r="X38" t="n">
         <v>227.4491568787012</v>
       </c>
       <c r="Y38" t="n">
-        <v>238.8457546748999</v>
+        <v>238.8457546749</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.9591328025156</v>
+        <v>30.95913280251563</v>
       </c>
       <c r="C40" t="n">
-        <v>17.15912764791608</v>
+        <v>17.15912764791611</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7804920454944693</v>
+        <v>0.7804920454944977</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1951662294602272</v>
+        <v>0.1951662294602556</v>
       </c>
       <c r="G40" t="n">
-        <v>16.21830562263183</v>
+        <v>16.21830562263186</v>
       </c>
       <c r="H40" t="n">
-        <v>4.781609892077046</v>
+        <v>4.781609892077075</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.42792004702122</v>
+        <v>63.30491852264444</v>
       </c>
       <c r="T40" t="n">
-        <v>79.01161996434088</v>
+        <v>79.01161996434091</v>
       </c>
       <c r="U40" t="n">
-        <v>140.4209317603118</v>
+        <v>133.5439332846884</v>
       </c>
       <c r="V40" t="n">
         <v>107.3672692021412</v>
       </c>
       <c r="W40" t="n">
-        <v>132.5341552727544</v>
+        <v>132.5341552727545</v>
       </c>
       <c r="X40" t="n">
-        <v>78.17925726855756</v>
+        <v>78.17925726855759</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.05412502462525</v>
+        <v>69.05412502462528</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>292.6856956785896</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>280.6970126362713</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>271.6783166807993</v>
+        <v>271.6783166807992</v>
       </c>
       <c r="E41" t="n">
         <v>293.4204542507048</v>
       </c>
       <c r="F41" t="n">
-        <v>312.592270338682</v>
+        <v>312.5922703386819</v>
       </c>
       <c r="G41" t="n">
         <v>313.9647209489871</v>
       </c>
       <c r="H41" t="n">
-        <v>226.3321831727232</v>
+        <v>226.3321831727231</v>
       </c>
       <c r="I41" t="n">
-        <v>52.05070989744833</v>
+        <v>52.05070989744826</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>75.15965324151199</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>122.242970687693</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>154.8742090959271</v>
       </c>
       <c r="V41" t="n">
-        <v>236.1920729187687</v>
+        <v>10.71823882538765</v>
       </c>
       <c r="W41" t="n">
         <v>261.4921723967256</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>280.7924306294722</v>
       </c>
       <c r="Y41" t="n">
-        <v>126.4017496720323</v>
+        <v>292.1890284256709</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.30240655328666</v>
+        <v>84.3024065532866</v>
       </c>
       <c r="C43" t="n">
-        <v>70.50240139868714</v>
+        <v>70.50240139868708</v>
       </c>
       <c r="D43" t="n">
-        <v>54.12376579626553</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>53.07151565204498</v>
+        <v>36.0013893467335</v>
       </c>
       <c r="F43" t="n">
-        <v>53.53843998023129</v>
+        <v>53.53843998023123</v>
       </c>
       <c r="G43" t="n">
-        <v>69.56157937340289</v>
+        <v>69.56157937340284</v>
       </c>
       <c r="H43" t="n">
-        <v>58.12488364284811</v>
+        <v>58.12488364284805</v>
       </c>
       <c r="I43" t="n">
-        <v>37.77841014903538</v>
+        <v>37.77841014903532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>109.7711937977923</v>
+        <v>109.7711937977922</v>
       </c>
       <c r="T43" t="n">
-        <v>132.354893715112</v>
+        <v>132.3548937151119</v>
       </c>
       <c r="U43" t="n">
-        <v>186.8872070354594</v>
+        <v>186.8872070354593</v>
       </c>
       <c r="V43" t="n">
         <v>160.7105429529122</v>
       </c>
       <c r="W43" t="n">
-        <v>114.6835369219473</v>
+        <v>185.8774290235255</v>
       </c>
       <c r="X43" t="n">
         <v>131.5225310193286</v>
@@ -3985,19 +3985,19 @@
         <v>271.6783166807993</v>
       </c>
       <c r="E44" t="n">
-        <v>293.4204542507048</v>
+        <v>121.1209031301319</v>
       </c>
       <c r="F44" t="n">
-        <v>312.592270338682</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>259.7170068671237</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>226.3321831727231</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>52.05070989744829</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>75.15965324151202</v>
       </c>
       <c r="T44" t="n">
-        <v>122.2429706876931</v>
+        <v>122.242970687693</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>154.8742090959271</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>236.1920729187687</v>
       </c>
       <c r="W44" t="n">
         <v>261.4921723967256</v>
@@ -4045,7 +4045,7 @@
         <v>280.7924306294722</v>
       </c>
       <c r="Y44" t="n">
-        <v>292.189028425671</v>
+        <v>292.1890284256709</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.30240655328666</v>
+        <v>84.30240655328663</v>
       </c>
       <c r="C46" t="n">
-        <v>70.50240139868714</v>
+        <v>70.50240139868711</v>
       </c>
       <c r="D46" t="n">
-        <v>54.12376579626553</v>
+        <v>54.1237657962655</v>
       </c>
       <c r="E46" t="n">
-        <v>53.07151565204498</v>
+        <v>53.07151565204495</v>
       </c>
       <c r="F46" t="n">
-        <v>53.53843998023129</v>
+        <v>53.53843998023126</v>
       </c>
       <c r="G46" t="n">
-        <v>69.56157937340289</v>
+        <v>69.56157937340286</v>
       </c>
       <c r="H46" t="n">
-        <v>58.12488364284811</v>
+        <v>58.12488364284808</v>
       </c>
       <c r="I46" t="n">
-        <v>37.77841014903538</v>
+        <v>37.77841014903535</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>39.29795311697382</v>
       </c>
       <c r="S46" t="n">
-        <v>38.5773016962136</v>
+        <v>109.7711937977923</v>
       </c>
       <c r="T46" t="n">
-        <v>132.354893715112</v>
+        <v>132.3548937151119</v>
       </c>
       <c r="U46" t="n">
         <v>186.8872070354594</v>
@@ -4200,7 +4200,7 @@
         <v>185.8774290235255</v>
       </c>
       <c r="X46" t="n">
-        <v>131.5225310193286</v>
+        <v>21.03068580077751</v>
       </c>
       <c r="Y46" t="n">
         <v>122.3973987753963</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F2" t="n">
         <v>13.01901823983628</v>
@@ -4333,22 +4333,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M2" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N2" t="n">
-        <v>12.3012350807645</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="O2" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P2" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q2" t="n">
         <v>47.77178672141554</v>
@@ -4357,25 +4357,25 @@
         <v>35.70820421600757</v>
       </c>
       <c r="S2" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C3" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D3" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E3" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F3" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G3" t="n">
-        <v>11.58103920519164</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="H3" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I3" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J3" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K3" t="n">
-        <v>24.60247016152901</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L3" t="n">
-        <v>36.42598737507935</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M3" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="N3" t="n">
-        <v>47.77178672141554</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O3" t="n">
-        <v>47.77178672141554</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="P3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q3" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R3" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="S3" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T3" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="U3" t="n">
-        <v>23.64462171059961</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="V3" t="n">
-        <v>23.64462171059961</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="W3" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X3" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="H4" t="n">
         <v>0.9554357344283108</v>
@@ -4494,10 +4494,10 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L4" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M4" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N4" t="n">
         <v>24.12475229431485</v>
@@ -4518,22 +4518,22 @@
         <v>35.70820421600757</v>
       </c>
       <c r="T4" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U4" t="n">
-        <v>11.58103920519164</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V4" t="n">
-        <v>11.58103920519164</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C5" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D5" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E5" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F5" t="n">
         <v>13.01901823983628</v>
@@ -4567,25 +4567,25 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J5" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="K5" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L5" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="M5" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="O5" t="n">
         <v>24.12475229431485</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="O5" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="P5" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="Q5" t="n">
         <v>47.77178672141554</v>
@@ -4597,22 +4597,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="T5" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="U5" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="V5" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="W5" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="X5" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="Y5" t="n">
         <v>35.70820421600757</v>
-      </c>
-      <c r="U5" t="n">
-        <v>35.70820421600757</v>
-      </c>
-      <c r="V5" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="W5" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="X5" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C6" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D6" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E6" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="F6" t="n">
-        <v>11.58103920519164</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I6" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K6" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L6" t="n">
-        <v>12.3012350807645</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="M6" t="n">
-        <v>12.3012350807645</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N6" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O6" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P6" t="n">
         <v>47.77178672141554</v>
@@ -4670,28 +4670,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R6" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S6" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T6" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="U6" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V6" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W6" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X6" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J7" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K7" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L7" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M7" t="n">
-        <v>35.94826950786519</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N7" t="n">
-        <v>47.77178672141554</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O7" t="n">
-        <v>47.77178672141554</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P7" t="n">
         <v>47.77178672141554</v>
@@ -4749,28 +4749,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R7" t="n">
-        <v>37.14618325065221</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S7" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T7" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U7" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V7" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W7" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X7" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="8">
@@ -4807,31 +4807,31 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K8" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L8" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M8" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N8" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T8" t="n">
         <v>35.70820421600757</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C9" t="n">
-        <v>37.14618325065221</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D9" t="n">
-        <v>37.14618325065221</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E9" t="n">
-        <v>37.14618325065221</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F9" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H9" t="n">
         <v>0.9554357344283108</v>
@@ -4883,19 +4883,19 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L9" t="n">
-        <v>12.3012350807645</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="M9" t="n">
-        <v>24.12475229431485</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="N9" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O9" t="n">
         <v>47.77178672141554</v>
@@ -4907,28 +4907,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S9" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T9" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U9" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V9" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W9" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X9" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y9" t="n">
-        <v>37.14618325065221</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J10" t="n">
         <v>0.9554357344283108</v>
@@ -4983,31 +4983,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T10" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="U10" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="V10" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="W10" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="X10" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="Y10" t="n">
         <v>25.08260074524424</v>
-      </c>
-      <c r="U10" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1478.184298475047</v>
+        <v>1790.638996879431</v>
       </c>
       <c r="C11" t="n">
-        <v>1199.333345841082</v>
+        <v>1511.788044245467</v>
       </c>
       <c r="D11" t="n">
-        <v>929.5921871015339</v>
+        <v>1242.046885505918</v>
       </c>
       <c r="E11" t="n">
-        <v>637.8892732408688</v>
+        <v>950.3439716452533</v>
       </c>
       <c r="F11" t="n">
-        <v>326.8208885842671</v>
+        <v>639.2755869886516</v>
       </c>
       <c r="G11" t="n">
-        <v>326.8208885842671</v>
+        <v>326.820888584267</v>
       </c>
       <c r="H11" t="n">
-        <v>102.8839051054016</v>
+        <v>102.8839051054015</v>
       </c>
       <c r="I11" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J11" t="n">
-        <v>174.110037656846</v>
+        <v>174.1100376568461</v>
       </c>
       <c r="K11" t="n">
-        <v>484.875091067929</v>
+        <v>484.8750910679291</v>
       </c>
       <c r="L11" t="n">
-        <v>920.3766264492915</v>
+        <v>920.3766264492897</v>
       </c>
       <c r="M11" t="n">
-        <v>1411.10565508427</v>
+        <v>1411.105655084268</v>
       </c>
       <c r="N11" t="n">
-        <v>1888.504364049728</v>
+        <v>1888.504364049727</v>
       </c>
       <c r="O11" t="n">
-        <v>2287.055438170518</v>
+        <v>2287.055438170517</v>
       </c>
       <c r="P11" t="n">
-        <v>2595.052099266574</v>
+        <v>2595.052099266573</v>
       </c>
       <c r="Q11" t="n">
-        <v>2749.44069118917</v>
+        <v>2749.440691189169</v>
       </c>
       <c r="R11" t="n">
-        <v>2749.44069118917</v>
+        <v>2749.440691189169</v>
       </c>
       <c r="S11" t="n">
-        <v>2678.203232893346</v>
+        <v>2678.203232893345</v>
       </c>
       <c r="T11" t="n">
-        <v>2559.406868086228</v>
+        <v>2559.406868086227</v>
       </c>
       <c r="U11" t="n">
-        <v>2407.649656402106</v>
+        <v>2559.406868086227</v>
       </c>
       <c r="V11" t="n">
-        <v>2173.753188331275</v>
+        <v>2325.510400015397</v>
       </c>
       <c r="W11" t="n">
-        <v>2048.092366405117</v>
+        <v>2325.510400015397</v>
       </c>
       <c r="X11" t="n">
-        <v>1769.145031959838</v>
+        <v>2046.563065570118</v>
       </c>
       <c r="Y11" t="n">
-        <v>1769.145031959838</v>
+        <v>2046.563065570118</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I12" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J12" t="n">
-        <v>143.3089054803056</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K12" t="n">
-        <v>420.7686285343807</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L12" t="n">
-        <v>851.0909431968464</v>
+        <v>851.0909431968469</v>
       </c>
       <c r="M12" t="n">
-        <v>1411.393302314043</v>
+        <v>1411.393302314044</v>
       </c>
       <c r="N12" t="n">
-        <v>1516.886482373381</v>
+        <v>1875.708418026372</v>
       </c>
       <c r="O12" t="n">
-        <v>1979.765293243412</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="P12" t="n">
         <v>2338.587228896403</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>422.9272070480158</v>
+        <v>422.9272070480167</v>
       </c>
       <c r="C13" t="n">
-        <v>356.3940435429241</v>
+        <v>356.394043542925</v>
       </c>
       <c r="D13" t="n">
-        <v>306.4049564039149</v>
+        <v>306.4049564039158</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4787481984617</v>
+        <v>257.4787481984627</v>
       </c>
       <c r="F13" t="n">
-        <v>208.0808992574669</v>
+        <v>208.0808992574678</v>
       </c>
       <c r="G13" t="n">
-        <v>142.4980610304401</v>
+        <v>142.498061030441</v>
       </c>
       <c r="H13" t="n">
-        <v>88.46744071306465</v>
+        <v>88.4674407130652</v>
       </c>
       <c r="I13" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J13" t="n">
-        <v>114.76584450802</v>
+        <v>114.7658445080201</v>
       </c>
       <c r="K13" t="n">
-        <v>278.3363044526606</v>
+        <v>278.3363044526608</v>
       </c>
       <c r="L13" t="n">
-        <v>517.0014420670341</v>
+        <v>517.0014420670345</v>
       </c>
       <c r="M13" t="n">
-        <v>775.0657645974878</v>
+        <v>775.0657645974884</v>
       </c>
       <c r="N13" t="n">
-        <v>1032.63065406897</v>
+        <v>1032.630654068971</v>
       </c>
       <c r="O13" t="n">
-        <v>1267.327518396183</v>
+        <v>1267.327518396184</v>
       </c>
       <c r="P13" t="n">
-        <v>1461.448646979997</v>
+        <v>1461.448646979998</v>
       </c>
       <c r="Q13" t="n">
         <v>1545.564005262127</v>
       </c>
       <c r="R13" t="n">
-        <v>1510.550486486038</v>
+        <v>1510.550486486039</v>
       </c>
       <c r="S13" t="n">
-        <v>1404.351876113164</v>
+        <v>1404.351876113165</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.341447641986</v>
+        <v>1275.341447641987</v>
       </c>
       <c r="U13" t="n">
-        <v>1091.247874402781</v>
+        <v>1091.247874402782</v>
       </c>
       <c r="V13" t="n">
-        <v>933.5953759944317</v>
+        <v>933.5953759944325</v>
       </c>
       <c r="W13" t="n">
-        <v>750.5217805450588</v>
+        <v>750.5217805450598</v>
       </c>
       <c r="X13" t="n">
-        <v>622.3521224736626</v>
+        <v>622.3521224736635</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.3997696991676</v>
+        <v>503.3997696991685</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1249.065763379399</v>
+        <v>1742.743905597813</v>
       </c>
       <c r="C14" t="n">
-        <v>970.2148107454348</v>
+        <v>1463.892952963849</v>
       </c>
       <c r="D14" t="n">
-        <v>970.2148107454348</v>
+        <v>1194.1517942243</v>
       </c>
       <c r="E14" t="n">
-        <v>678.5118968847696</v>
+        <v>902.4488803636352</v>
       </c>
       <c r="F14" t="n">
-        <v>367.443512228168</v>
+        <v>591.3804957070336</v>
       </c>
       <c r="G14" t="n">
-        <v>54.9888138237834</v>
+        <v>278.9257973026489</v>
       </c>
       <c r="H14" t="n">
         <v>54.9888138237834</v>
@@ -5281,13 +5281,13 @@
         <v>174.1100376568462</v>
       </c>
       <c r="K14" t="n">
-        <v>484.8750910679296</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L14" t="n">
         <v>920.3766264492897</v>
       </c>
       <c r="M14" t="n">
-        <v>1411.105655084268</v>
+        <v>1411.105655084269</v>
       </c>
       <c r="N14" t="n">
         <v>1888.504364049727</v>
@@ -5305,25 +5305,25 @@
         <v>2749.44069118917</v>
       </c>
       <c r="S14" t="n">
-        <v>2678.203232893346</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="T14" t="n">
-        <v>2559.406868086228</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="U14" t="n">
-        <v>2407.649656402106</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="V14" t="n">
-        <v>2173.753188331275</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="W14" t="n">
-        <v>1914.301064222105</v>
+        <v>2603.111022918817</v>
       </c>
       <c r="X14" t="n">
-        <v>1635.353729776826</v>
+        <v>2324.163688473539</v>
       </c>
       <c r="Y14" t="n">
-        <v>1540.02649686419</v>
+        <v>2033.704639082604</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J15" t="n">
-        <v>54.9888138237834</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K15" t="n">
-        <v>54.9888138237834</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L15" t="n">
-        <v>485.3111284862493</v>
+        <v>851.0909431968469</v>
       </c>
       <c r="M15" t="n">
-        <v>1045.613487603446</v>
+        <v>1411.393302314044</v>
       </c>
       <c r="N15" t="n">
-        <v>1634.140285942039</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O15" t="n">
-        <v>2097.019096812071</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P15" t="n">
-        <v>2455.841032465062</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q15" t="n">
         <v>2534.278698377086</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>422.9272070480168</v>
+        <v>422.9272070480164</v>
       </c>
       <c r="C16" t="n">
-        <v>356.3940435429251</v>
+        <v>356.3940435429247</v>
       </c>
       <c r="D16" t="n">
-        <v>306.4049564039159</v>
+        <v>306.4049564039154</v>
       </c>
       <c r="E16" t="n">
-        <v>257.4787481984628</v>
+        <v>257.4787481984623</v>
       </c>
       <c r="F16" t="n">
-        <v>208.0808992574679</v>
+        <v>208.0808992574675</v>
       </c>
       <c r="G16" t="n">
         <v>142.4980610304407</v>
       </c>
       <c r="H16" t="n">
-        <v>88.46744071306522</v>
+        <v>88.46744071306523</v>
       </c>
       <c r="I16" t="n">
         <v>54.9888138237834</v>
@@ -5439,16 +5439,16 @@
         <v>114.7658445080201</v>
       </c>
       <c r="K16" t="n">
-        <v>278.3363044526609</v>
+        <v>278.3363044526608</v>
       </c>
       <c r="L16" t="n">
-        <v>517.0014420670345</v>
+        <v>517.0014420670341</v>
       </c>
       <c r="M16" t="n">
-        <v>775.0657645974884</v>
+        <v>775.0657645974879</v>
       </c>
       <c r="N16" t="n">
-        <v>1032.630654068971</v>
+        <v>1032.63065406897</v>
       </c>
       <c r="O16" t="n">
         <v>1267.327518396184</v>
@@ -5463,25 +5463,25 @@
         <v>1510.550486486039</v>
       </c>
       <c r="S16" t="n">
-        <v>1404.351876113165</v>
+        <v>1404.351876113164</v>
       </c>
       <c r="T16" t="n">
         <v>1275.341447641987</v>
       </c>
       <c r="U16" t="n">
-        <v>1091.247874402782</v>
+        <v>1091.247874402781</v>
       </c>
       <c r="V16" t="n">
-        <v>933.5953759944325</v>
+        <v>933.5953759944322</v>
       </c>
       <c r="W16" t="n">
-        <v>750.5217805450596</v>
+        <v>750.5217805450593</v>
       </c>
       <c r="X16" t="n">
-        <v>622.3521224736635</v>
+        <v>622.352122473663</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.3997696991686</v>
+        <v>503.3997696991682</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1447.539637584937</v>
+        <v>1447.539637584936</v>
       </c>
       <c r="C17" t="n">
-        <v>1217.889396286452</v>
+        <v>1217.889396286451</v>
       </c>
       <c r="D17" t="n">
-        <v>997.3489488823825</v>
+        <v>997.3489488823822</v>
       </c>
       <c r="E17" t="n">
-        <v>754.8467463571968</v>
+        <v>754.8467463571966</v>
       </c>
       <c r="F17" t="n">
-        <v>492.9790730360746</v>
+        <v>492.9790730360745</v>
       </c>
       <c r="G17" t="n">
-        <v>229.7250859671695</v>
+        <v>229.7250859671694</v>
       </c>
       <c r="H17" t="n">
         <v>54.9888138237834</v>
@@ -5518,10 +5518,10 @@
         <v>174.1100376568462</v>
       </c>
       <c r="K17" t="n">
-        <v>484.8750910679295</v>
+        <v>484.8750910679294</v>
       </c>
       <c r="L17" t="n">
-        <v>920.3766264492897</v>
+        <v>920.3766264492895</v>
       </c>
       <c r="M17" t="n">
         <v>1411.105655084268</v>
@@ -5542,7 +5542,7 @@
         <v>2749.44069118917</v>
       </c>
       <c r="S17" t="n">
-        <v>2727.403944228825</v>
+        <v>2727.403944228826</v>
       </c>
       <c r="T17" t="n">
         <v>2657.808290757187</v>
@@ -5557,7 +5557,7 @@
         <v>2160.304620899502</v>
       </c>
       <c r="X17" t="n">
-        <v>1930.557997789703</v>
+        <v>1930.557997789702</v>
       </c>
       <c r="Y17" t="n">
         <v>1689.299659734248</v>
@@ -5594,25 +5594,25 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J18" t="n">
-        <v>54.9888138237834</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K18" t="n">
-        <v>54.9888138237834</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L18" t="n">
-        <v>485.3111284862493</v>
+        <v>851.0909431968469</v>
       </c>
       <c r="M18" t="n">
-        <v>1045.613487603446</v>
+        <v>928.359684034788</v>
       </c>
       <c r="N18" t="n">
-        <v>1634.140285942039</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O18" t="n">
-        <v>2097.019096812071</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P18" t="n">
-        <v>2455.841032465062</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q18" t="n">
         <v>2534.278698377086</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.4652783825744</v>
+        <v>101.4652783825747</v>
       </c>
       <c r="C19" t="n">
-        <v>84.13282621296216</v>
+        <v>84.1328262129625</v>
       </c>
       <c r="D19" t="n">
-        <v>83.34445040943237</v>
+        <v>83.34445040943277</v>
       </c>
       <c r="E19" t="n">
-        <v>83.34445040943237</v>
+        <v>83.34445040943277</v>
       </c>
       <c r="F19" t="n">
-        <v>83.14731280391696</v>
+        <v>83.14731280391742</v>
       </c>
       <c r="G19" t="n">
-        <v>66.76518591236963</v>
+        <v>66.76518591237014</v>
       </c>
       <c r="H19" t="n">
-        <v>54.9888138237834</v>
+        <v>61.93527693047416</v>
       </c>
       <c r="I19" t="n">
         <v>54.9888138237834</v>
@@ -5709,16 +5709,16 @@
         <v>523.7823890599423</v>
       </c>
       <c r="V19" t="n">
-        <v>415.3306019870723</v>
+        <v>415.3306019870724</v>
       </c>
       <c r="W19" t="n">
-        <v>281.4577178731789</v>
+        <v>281.457717873179</v>
       </c>
       <c r="X19" t="n">
-        <v>202.4887711372622</v>
+        <v>202.4887711372623</v>
       </c>
       <c r="Y19" t="n">
-        <v>132.7371296982467</v>
+        <v>132.737129698247</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1217.889396286452</v>
       </c>
       <c r="D20" t="n">
-        <v>997.3489488823825</v>
+        <v>997.3489488823826</v>
       </c>
       <c r="E20" t="n">
-        <v>754.8467463571968</v>
+        <v>754.846746357197</v>
       </c>
       <c r="F20" t="n">
-        <v>492.9790730360746</v>
+        <v>492.9790730360749</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7250859671694</v>
+        <v>229.7250859671698</v>
       </c>
       <c r="H20" t="n">
         <v>54.9888138237834</v>
@@ -5840,7 +5840,7 @@
         <v>851.0909431968469</v>
       </c>
       <c r="M21" t="n">
-        <v>1411.393302314044</v>
+        <v>1124.051153515471</v>
       </c>
       <c r="N21" t="n">
         <v>1712.577951854063</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.51881527588418</v>
+        <v>94.51881527588375</v>
       </c>
       <c r="C22" t="n">
-        <v>77.18636310627195</v>
+        <v>77.18636310627161</v>
       </c>
       <c r="D22" t="n">
-        <v>76.39798730274217</v>
+        <v>76.39798730274191</v>
       </c>
       <c r="E22" t="n">
-        <v>76.39798730274217</v>
+        <v>76.39798730274191</v>
       </c>
       <c r="F22" t="n">
-        <v>76.20084969722676</v>
+        <v>76.20084969722659</v>
       </c>
       <c r="G22" t="n">
-        <v>59.81872280567943</v>
+        <v>59.81872280567934</v>
       </c>
       <c r="H22" t="n">
         <v>54.9888138237834</v>
@@ -5931,31 +5931,31 @@
         <v>795.4828671367609</v>
       </c>
       <c r="Q22" t="n">
-        <v>788.5364040300708</v>
+        <v>788.5364040300695</v>
       </c>
       <c r="R22" t="n">
-        <v>788.5364040300708</v>
+        <v>788.5364040300695</v>
       </c>
       <c r="S22" t="n">
-        <v>731.5385049926756</v>
+        <v>731.5385049926745</v>
       </c>
       <c r="T22" t="n">
-        <v>651.7287878569776</v>
+        <v>651.7287878569766</v>
       </c>
       <c r="U22" t="n">
-        <v>516.8359259532521</v>
+        <v>516.8359259532511</v>
       </c>
       <c r="V22" t="n">
-        <v>408.3841388803821</v>
+        <v>408.3841388803813</v>
       </c>
       <c r="W22" t="n">
-        <v>274.5112547664887</v>
+        <v>274.511254766488</v>
       </c>
       <c r="X22" t="n">
-        <v>195.542308030572</v>
+        <v>195.5423080305713</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.7906665915565</v>
+        <v>125.790666591556</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1447.539637584935</v>
+        <v>1447.539637584936</v>
       </c>
       <c r="C23" t="n">
-        <v>1217.88939628645</v>
+        <v>1217.889396286451</v>
       </c>
       <c r="D23" t="n">
-        <v>997.3489488823814</v>
+        <v>997.348948882382</v>
       </c>
       <c r="E23" t="n">
-        <v>754.8467463571957</v>
+        <v>754.8467463571965</v>
       </c>
       <c r="F23" t="n">
-        <v>492.9790730360735</v>
+        <v>492.9790730360743</v>
       </c>
       <c r="G23" t="n">
-        <v>229.7250859671694</v>
+        <v>229.7250859671693</v>
       </c>
       <c r="H23" t="n">
         <v>54.9888138237834</v>
       </c>
       <c r="I23" t="n">
-        <v>54.98881382378354</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J23" t="n">
-        <v>174.1100376568463</v>
+        <v>174.1100376568462</v>
       </c>
       <c r="K23" t="n">
-        <v>484.8750910679296</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L23" t="n">
-        <v>920.3766264492899</v>
+        <v>920.3766264492897</v>
       </c>
       <c r="M23" t="n">
-        <v>1411.105655084269</v>
+        <v>1411.105655084268</v>
       </c>
       <c r="N23" t="n">
         <v>1888.504364049727</v>
@@ -6034,7 +6034,7 @@
         <v>1930.557997789702</v>
       </c>
       <c r="Y23" t="n">
-        <v>1689.299659734247</v>
+        <v>1689.299659734248</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>54.9888138237834</v>
       </c>
       <c r="K24" t="n">
-        <v>133.4264797358081</v>
+        <v>332.4485368778587</v>
       </c>
       <c r="L24" t="n">
-        <v>563.748794398274</v>
+        <v>762.7708515403245</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.051153515471</v>
+        <v>1323.073210657521</v>
       </c>
       <c r="N24" t="n">
         <v>1712.577951854063</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.51881527588418</v>
+        <v>94.51881527588375</v>
       </c>
       <c r="C25" t="n">
-        <v>77.18636310627195</v>
+        <v>77.18636310627161</v>
       </c>
       <c r="D25" t="n">
-        <v>76.39798730274217</v>
+        <v>76.39798730274191</v>
       </c>
       <c r="E25" t="n">
-        <v>76.39798730274217</v>
+        <v>76.39798730274191</v>
       </c>
       <c r="F25" t="n">
-        <v>76.20084969722676</v>
+        <v>76.20084969722659</v>
       </c>
       <c r="G25" t="n">
-        <v>59.81872280567943</v>
+        <v>59.81872280567934</v>
       </c>
       <c r="H25" t="n">
         <v>54.9888138237834</v>
@@ -6174,25 +6174,25 @@
         <v>795.4828671367609</v>
       </c>
       <c r="S25" t="n">
-        <v>738.4849680993657</v>
+        <v>738.4849680993658</v>
       </c>
       <c r="T25" t="n">
-        <v>658.6752509636678</v>
+        <v>658.675250963668</v>
       </c>
       <c r="U25" t="n">
-        <v>523.7823890599423</v>
+        <v>516.8359259532511</v>
       </c>
       <c r="V25" t="n">
-        <v>415.3306019870723</v>
+        <v>408.3841388803813</v>
       </c>
       <c r="W25" t="n">
-        <v>281.4577178731789</v>
+        <v>274.511254766488</v>
       </c>
       <c r="X25" t="n">
-        <v>202.4887711372622</v>
+        <v>195.5423080305713</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.7906665915565</v>
+        <v>125.790666591556</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1053.9339469011</v>
+        <v>1395.724981688164</v>
       </c>
       <c r="C26" t="n">
-        <v>775.0829942671355</v>
+        <v>1116.874029054199</v>
       </c>
       <c r="D26" t="n">
-        <v>505.3418355275871</v>
+        <v>847.132870314651</v>
       </c>
       <c r="E26" t="n">
-        <v>505.3418355275871</v>
+        <v>555.4299564539858</v>
       </c>
       <c r="F26" t="n">
-        <v>505.3418355275871</v>
+        <v>244.3615717973842</v>
       </c>
       <c r="G26" t="n">
-        <v>192.8871371232024</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="H26" t="n">
         <v>54.9888138237834</v>
@@ -6226,13 +6226,13 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J26" t="n">
-        <v>174.1100376568463</v>
+        <v>174.1100376568461</v>
       </c>
       <c r="K26" t="n">
-        <v>484.8750910679297</v>
+        <v>484.8750910679296</v>
       </c>
       <c r="L26" t="n">
-        <v>920.37662644929</v>
+        <v>920.3766264492899</v>
       </c>
       <c r="M26" t="n">
         <v>1411.105655084269</v>
@@ -6253,25 +6253,25 @@
         <v>2749.44069118917</v>
       </c>
       <c r="S26" t="n">
-        <v>2678.203232893346</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="T26" t="n">
-        <v>2559.406868086228</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="U26" t="n">
-        <v>2407.649656402106</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="V26" t="n">
-        <v>2173.753188331275</v>
+        <v>2515.544223118339</v>
       </c>
       <c r="W26" t="n">
-        <v>1914.301064222104</v>
+        <v>2256.092099009168</v>
       </c>
       <c r="X26" t="n">
-        <v>1635.353729776825</v>
+        <v>1977.144764563889</v>
       </c>
       <c r="Y26" t="n">
-        <v>1344.894680385891</v>
+        <v>1686.685715172955</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>54.9888138237834</v>
       </c>
       <c r="K27" t="n">
-        <v>133.4264797358081</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="L27" t="n">
-        <v>563.748794398274</v>
+        <v>485.3111284862493</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.051153515471</v>
+        <v>1045.613487603446</v>
       </c>
       <c r="N27" t="n">
-        <v>1712.577951854063</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O27" t="n">
-        <v>2175.456762724095</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P27" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q27" t="n">
         <v>2534.278698377086</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>422.9272070480166</v>
+        <v>422.9272070480168</v>
       </c>
       <c r="C28" t="n">
-        <v>356.3940435429249</v>
+        <v>356.3940435429251</v>
       </c>
       <c r="D28" t="n">
-        <v>306.4049564039157</v>
+        <v>306.4049564039158</v>
       </c>
       <c r="E28" t="n">
-        <v>257.4787481984625</v>
+        <v>257.4787481984627</v>
       </c>
       <c r="F28" t="n">
-        <v>208.0808992574676</v>
+        <v>208.0808992574678</v>
       </c>
       <c r="G28" t="n">
-        <v>142.4980610304408</v>
+        <v>142.498061030441</v>
       </c>
       <c r="H28" t="n">
-        <v>88.46744071306524</v>
+        <v>88.46744071306544</v>
       </c>
       <c r="I28" t="n">
         <v>54.9888138237834</v>
@@ -6393,10 +6393,10 @@
         <v>517.0014420670344</v>
       </c>
       <c r="M28" t="n">
-        <v>775.0657645974883</v>
+        <v>775.0657645974882</v>
       </c>
       <c r="N28" t="n">
-        <v>1032.630654068971</v>
+        <v>1032.63065406897</v>
       </c>
       <c r="O28" t="n">
         <v>1267.327518396184</v>
@@ -6420,16 +6420,16 @@
         <v>1091.247874402782</v>
       </c>
       <c r="V28" t="n">
-        <v>933.5953759944325</v>
+        <v>933.5953759944327</v>
       </c>
       <c r="W28" t="n">
-        <v>750.5217805450596</v>
+        <v>750.5217805450599</v>
       </c>
       <c r="X28" t="n">
-        <v>622.3521224736634</v>
+        <v>622.3521224736636</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.3997696991685</v>
+        <v>503.3997696991686</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1518.806922118948</v>
+        <v>1227.104008258283</v>
       </c>
       <c r="C29" t="n">
-        <v>1239.955969484983</v>
+        <v>948.253055624318</v>
       </c>
       <c r="D29" t="n">
-        <v>970.2148107454349</v>
+        <v>678.5118968847696</v>
       </c>
       <c r="E29" t="n">
-        <v>678.5118968847697</v>
+        <v>678.5118968847696</v>
       </c>
       <c r="F29" t="n">
-        <v>367.4435122281681</v>
+        <v>367.443512228168</v>
       </c>
       <c r="G29" t="n">
         <v>54.9888138237834</v>
@@ -6463,13 +6463,13 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J29" t="n">
-        <v>174.1100376568463</v>
+        <v>174.1100376568461</v>
       </c>
       <c r="K29" t="n">
-        <v>484.8750910679297</v>
+        <v>484.8750910679296</v>
       </c>
       <c r="L29" t="n">
-        <v>920.37662644929</v>
+        <v>920.3766264492899</v>
       </c>
       <c r="M29" t="n">
         <v>1411.105655084269</v>
@@ -6493,22 +6493,22 @@
         <v>2678.203232893346</v>
       </c>
       <c r="T29" t="n">
-        <v>2559.406868086228</v>
+        <v>2678.203232893346</v>
       </c>
       <c r="U29" t="n">
-        <v>2407.649656402106</v>
+        <v>2526.446021209224</v>
       </c>
       <c r="V29" t="n">
-        <v>2173.753188331275</v>
+        <v>2292.549553138393</v>
       </c>
       <c r="W29" t="n">
-        <v>1914.301064222104</v>
+        <v>2033.097429029222</v>
       </c>
       <c r="X29" t="n">
-        <v>1809.767655603739</v>
+        <v>1808.523791134008</v>
       </c>
       <c r="Y29" t="n">
-        <v>1809.767655603739</v>
+        <v>1518.064741743074</v>
       </c>
     </row>
     <row r="30">
@@ -6554,13 +6554,13 @@
         <v>1411.393302314044</v>
       </c>
       <c r="N30" t="n">
-        <v>1712.577951854063</v>
+        <v>1999.920100652636</v>
       </c>
       <c r="O30" t="n">
-        <v>2175.456762724095</v>
+        <v>1999.920100652636</v>
       </c>
       <c r="P30" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q30" t="n">
         <v>2534.278698377086</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>422.9272070480168</v>
+        <v>422.9272070480165</v>
       </c>
       <c r="C31" t="n">
-        <v>356.3940435429251</v>
+        <v>356.3940435429248</v>
       </c>
       <c r="D31" t="n">
-        <v>306.4049564039158</v>
+        <v>306.4049564039155</v>
       </c>
       <c r="E31" t="n">
-        <v>257.4787481984627</v>
+        <v>257.4787481984624</v>
       </c>
       <c r="F31" t="n">
-        <v>208.0808992574678</v>
+        <v>208.0808992574676</v>
       </c>
       <c r="G31" t="n">
-        <v>142.498061030441</v>
+        <v>142.4980610304408</v>
       </c>
       <c r="H31" t="n">
-        <v>88.46744071306544</v>
+        <v>88.46744071306522</v>
       </c>
       <c r="I31" t="n">
         <v>54.9888138237834</v>
@@ -6627,13 +6627,13 @@
         <v>278.3363044526608</v>
       </c>
       <c r="L31" t="n">
-        <v>517.0014420670344</v>
+        <v>517.0014420670345</v>
       </c>
       <c r="M31" t="n">
-        <v>775.0657645974883</v>
+        <v>775.0657645974884</v>
       </c>
       <c r="N31" t="n">
-        <v>1032.63065406897</v>
+        <v>1032.630654068971</v>
       </c>
       <c r="O31" t="n">
         <v>1267.327518396184</v>
@@ -6648,7 +6648,7 @@
         <v>1510.550486486039</v>
       </c>
       <c r="S31" t="n">
-        <v>1404.351876113164</v>
+        <v>1404.351876113165</v>
       </c>
       <c r="T31" t="n">
         <v>1275.341447641987</v>
@@ -6657,16 +6657,16 @@
         <v>1091.247874402782</v>
       </c>
       <c r="V31" t="n">
-        <v>933.5953759944327</v>
+        <v>933.5953759944323</v>
       </c>
       <c r="W31" t="n">
-        <v>750.5217805450599</v>
+        <v>750.5217805450594</v>
       </c>
       <c r="X31" t="n">
-        <v>622.3521224736636</v>
+        <v>622.3521224736633</v>
       </c>
       <c r="Y31" t="n">
-        <v>503.3997696991686</v>
+        <v>503.3997696991683</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1217.889396286451</v>
       </c>
       <c r="D32" t="n">
-        <v>997.348948882382</v>
+        <v>997.3489488823818</v>
       </c>
       <c r="E32" t="n">
         <v>754.8467463571963</v>
       </c>
       <c r="F32" t="n">
-        <v>492.9790730360743</v>
+        <v>492.9790730360742</v>
       </c>
       <c r="G32" t="n">
-        <v>229.7250859671694</v>
+        <v>229.7250859671693</v>
       </c>
       <c r="H32" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="I32" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J32" t="n">
-        <v>174.1100376568462</v>
+        <v>174.1100376568461</v>
       </c>
       <c r="K32" t="n">
         <v>484.8750910679295</v>
@@ -6724,7 +6724,7 @@
         <v>2749.44069118917</v>
       </c>
       <c r="R32" t="n">
-        <v>2749.44069118917</v>
+        <v>2749.440691189169</v>
       </c>
       <c r="S32" t="n">
         <v>2727.403944228825</v>
@@ -6733,10 +6733,10 @@
         <v>2657.808290757187</v>
       </c>
       <c r="U32" t="n">
-        <v>2555.251790408544</v>
+        <v>2555.251790408543</v>
       </c>
       <c r="V32" t="n">
-        <v>2370.556033673193</v>
+        <v>2370.556033673192</v>
       </c>
       <c r="W32" t="n">
         <v>2160.304620899501</v>
@@ -6773,31 +6773,31 @@
         <v>209.9462047925376</v>
       </c>
       <c r="H33" t="n">
-        <v>112.9356035520749</v>
+        <v>112.9356035520748</v>
       </c>
       <c r="I33" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J33" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="K33" t="n">
-        <v>133.4264797358081</v>
+        <v>332.4485368778587</v>
       </c>
       <c r="L33" t="n">
-        <v>563.748794398274</v>
+        <v>762.7708515403245</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.051153515471</v>
+        <v>928.359684034788</v>
       </c>
       <c r="N33" t="n">
-        <v>1712.577951854063</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O33" t="n">
-        <v>2175.456762724095</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P33" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q33" t="n">
         <v>2534.278698377086</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.5188152758839</v>
+        <v>101.4652783825753</v>
       </c>
       <c r="C34" t="n">
-        <v>77.18636310627173</v>
+        <v>84.13282621296318</v>
       </c>
       <c r="D34" t="n">
-        <v>76.397987302742</v>
+        <v>83.34445040943351</v>
       </c>
       <c r="E34" t="n">
-        <v>76.397987302742</v>
+        <v>83.34445040943351</v>
       </c>
       <c r="F34" t="n">
-        <v>76.20084969722664</v>
+        <v>83.14731280391821</v>
       </c>
       <c r="G34" t="n">
-        <v>59.81872280567937</v>
+        <v>66.765185912371</v>
       </c>
       <c r="H34" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="I34" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="J34" t="n">
-        <v>54.9888138237834</v>
+        <v>54.98881382378339</v>
       </c>
       <c r="K34" t="n">
         <v>117.5278155752574</v>
@@ -6885,25 +6885,25 @@
         <v>795.4828671367609</v>
       </c>
       <c r="S34" t="n">
-        <v>738.4849680993657</v>
+        <v>738.4849680993658</v>
       </c>
       <c r="T34" t="n">
-        <v>658.6752509636678</v>
+        <v>658.6752509636681</v>
       </c>
       <c r="U34" t="n">
-        <v>523.7823890599423</v>
+        <v>523.7823890599426</v>
       </c>
       <c r="V34" t="n">
-        <v>408.3841388803816</v>
+        <v>415.3306019870728</v>
       </c>
       <c r="W34" t="n">
-        <v>274.5112547664883</v>
+        <v>281.4577178731795</v>
       </c>
       <c r="X34" t="n">
-        <v>195.5423080305716</v>
+        <v>202.4887711372629</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.7906665915562</v>
+        <v>132.7371296982475</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1217.889396286451</v>
       </c>
       <c r="D35" t="n">
-        <v>997.3489488823822</v>
+        <v>997.3489488823824</v>
       </c>
       <c r="E35" t="n">
-        <v>754.8467463571965</v>
+        <v>754.8467463571967</v>
       </c>
       <c r="F35" t="n">
-        <v>492.9790730360742</v>
+        <v>492.9790730360745</v>
       </c>
       <c r="G35" t="n">
         <v>229.7250859671694</v>
@@ -7016,13 +7016,13 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J36" t="n">
-        <v>54.9888138237834</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K36" t="n">
-        <v>54.9888138237834</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L36" t="n">
-        <v>368.0573249175911</v>
+        <v>851.0909431968469</v>
       </c>
       <c r="M36" t="n">
         <v>928.359684034788</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.51881527588407</v>
+        <v>101.4652783825744</v>
       </c>
       <c r="C37" t="n">
-        <v>77.18636310627186</v>
+        <v>84.13282621296216</v>
       </c>
       <c r="D37" t="n">
-        <v>76.3979873027421</v>
+        <v>76.39798730274218</v>
       </c>
       <c r="E37" t="n">
-        <v>76.3979873027421</v>
+        <v>76.39798730274218</v>
       </c>
       <c r="F37" t="n">
-        <v>76.20084969722672</v>
+        <v>76.20084969722677</v>
       </c>
       <c r="G37" t="n">
-        <v>59.81872280567941</v>
+        <v>59.81872280567944</v>
       </c>
       <c r="H37" t="n">
         <v>54.9888138237834</v>
@@ -7125,22 +7125,22 @@
         <v>738.4849680993657</v>
       </c>
       <c r="T37" t="n">
-        <v>651.7287878569774</v>
+        <v>658.6752509636678</v>
       </c>
       <c r="U37" t="n">
-        <v>516.8359259532518</v>
+        <v>523.7823890599423</v>
       </c>
       <c r="V37" t="n">
-        <v>408.3841388803819</v>
+        <v>415.3306019870723</v>
       </c>
       <c r="W37" t="n">
-        <v>274.5112547664885</v>
+        <v>281.4577178731789</v>
       </c>
       <c r="X37" t="n">
-        <v>195.5423080305718</v>
+        <v>202.4887711372622</v>
       </c>
       <c r="Y37" t="n">
-        <v>125.7906665915564</v>
+        <v>132.7371296982467</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1447.539637584935</v>
+        <v>1447.539637584936</v>
       </c>
       <c r="C38" t="n">
-        <v>1217.88939628645</v>
+        <v>1217.889396286451</v>
       </c>
       <c r="D38" t="n">
-        <v>997.3489488823818</v>
+        <v>997.3489488823824</v>
       </c>
       <c r="E38" t="n">
-        <v>754.8467463571963</v>
+        <v>754.8467463571967</v>
       </c>
       <c r="F38" t="n">
         <v>492.9790730360745</v>
@@ -7174,10 +7174,10 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J38" t="n">
-        <v>174.1100376568461</v>
+        <v>174.1100376568462</v>
       </c>
       <c r="K38" t="n">
-        <v>484.8750910679294</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L38" t="n">
         <v>920.3766264492897</v>
@@ -7207,19 +7207,19 @@
         <v>2657.808290757187</v>
       </c>
       <c r="U38" t="n">
-        <v>2555.251790408544</v>
+        <v>2555.251790408545</v>
       </c>
       <c r="V38" t="n">
-        <v>2370.556033673193</v>
+        <v>2370.556033673194</v>
       </c>
       <c r="W38" t="n">
-        <v>2160.304620899501</v>
+        <v>2160.304620899502</v>
       </c>
       <c r="X38" t="n">
-        <v>1930.557997789702</v>
+        <v>1930.557997789703</v>
       </c>
       <c r="Y38" t="n">
-        <v>1689.299659734247</v>
+        <v>1689.299659734248</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J39" t="n">
-        <v>143.3089054803057</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K39" t="n">
-        <v>420.7686285343809</v>
+        <v>332.4485368778587</v>
       </c>
       <c r="L39" t="n">
-        <v>851.0909431968469</v>
+        <v>762.7708515403245</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.051153515471</v>
+        <v>1323.073210657521</v>
       </c>
       <c r="N39" t="n">
-        <v>1712.577951854063</v>
+        <v>1911.600008996114</v>
       </c>
       <c r="O39" t="n">
-        <v>2175.456762724095</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P39" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q39" t="n">
         <v>2534.278698377086</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.51881527588404</v>
+        <v>94.51881527588421</v>
       </c>
       <c r="C40" t="n">
-        <v>77.18636310627184</v>
+        <v>77.18636310627197</v>
       </c>
       <c r="D40" t="n">
-        <v>76.39798730274208</v>
+        <v>76.39798730274218</v>
       </c>
       <c r="E40" t="n">
-        <v>76.39798730274208</v>
+        <v>76.39798730274218</v>
       </c>
       <c r="F40" t="n">
-        <v>76.2008496972267</v>
+        <v>76.20084969722677</v>
       </c>
       <c r="G40" t="n">
-        <v>59.8187228056794</v>
+        <v>59.81872280567944</v>
       </c>
       <c r="H40" t="n">
         <v>54.9888138237834</v>
@@ -7359,25 +7359,25 @@
         <v>795.4828671367609</v>
       </c>
       <c r="S40" t="n">
-        <v>738.4849680993657</v>
+        <v>731.5385049926756</v>
       </c>
       <c r="T40" t="n">
-        <v>658.6752509636678</v>
+        <v>651.7287878569776</v>
       </c>
       <c r="U40" t="n">
-        <v>516.8359259532518</v>
+        <v>516.8359259532521</v>
       </c>
       <c r="V40" t="n">
-        <v>408.3841388803819</v>
+        <v>408.3841388803822</v>
       </c>
       <c r="W40" t="n">
-        <v>274.5112547664885</v>
+        <v>274.5112547664888</v>
       </c>
       <c r="X40" t="n">
-        <v>195.5423080305718</v>
+        <v>195.542308030572</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.7906665915564</v>
+        <v>125.7906665915566</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1823.408680415315</v>
+        <v>1539.876344419081</v>
       </c>
       <c r="C41" t="n">
         <v>1539.876344419081</v>
       </c>
       <c r="D41" t="n">
-        <v>1265.453802317264</v>
+        <v>1265.453802317263</v>
       </c>
       <c r="E41" t="n">
-        <v>969.0695050943295</v>
+        <v>969.0695050943292</v>
       </c>
       <c r="F41" t="n">
-        <v>653.3197370754588</v>
+        <v>653.3197370754585</v>
       </c>
       <c r="G41" t="n">
-        <v>336.1836553088052</v>
+        <v>336.183655308805</v>
       </c>
       <c r="H41" t="n">
-        <v>107.5652884676706</v>
+        <v>107.5652884676705</v>
       </c>
       <c r="I41" t="n">
         <v>54.9888138237834</v>
@@ -7438,25 +7438,25 @@
         <v>2749.44069118917</v>
       </c>
       <c r="S41" t="n">
-        <v>2749.44069118917</v>
+        <v>2673.521849531077</v>
       </c>
       <c r="T41" t="n">
-        <v>2749.44069118917</v>
+        <v>2550.044101361691</v>
       </c>
       <c r="U41" t="n">
-        <v>2749.44069118917</v>
+        <v>2393.605506315299</v>
       </c>
       <c r="V41" t="n">
-        <v>2510.86283975607</v>
+        <v>2382.779002451271</v>
       </c>
       <c r="W41" t="n">
-        <v>2246.72933228463</v>
+        <v>2118.645494979832</v>
       </c>
       <c r="X41" t="n">
-        <v>2246.72933228463</v>
+        <v>1835.016777172284</v>
       </c>
       <c r="Y41" t="n">
-        <v>2119.050797262375</v>
+        <v>1539.876344419081</v>
       </c>
     </row>
     <row r="42">
@@ -7493,7 +7493,7 @@
         <v>143.3089054803057</v>
       </c>
       <c r="K42" t="n">
-        <v>420.7686285343809</v>
+        <v>420.768628534381</v>
       </c>
       <c r="L42" t="n">
         <v>851.0909431968469</v>
@@ -7502,13 +7502,13 @@
         <v>1411.393302314044</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.920100652636</v>
+        <v>1516.88648237338</v>
       </c>
       <c r="O42" t="n">
-        <v>2462.798911522668</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P42" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q42" t="n">
         <v>2534.278698377086</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>455.6968905838999</v>
+        <v>383.7838682590744</v>
       </c>
       <c r="C43" t="n">
-        <v>384.4823437165392</v>
+        <v>312.5693213917137</v>
       </c>
       <c r="D43" t="n">
-        <v>329.8118732152608</v>
+        <v>312.5693213917137</v>
       </c>
       <c r="E43" t="n">
-        <v>276.2042816475387</v>
+        <v>276.2042816475384</v>
       </c>
       <c r="F43" t="n">
-        <v>222.1250493442747</v>
+        <v>222.1250493442745</v>
       </c>
       <c r="G43" t="n">
-        <v>151.8608277549789</v>
+        <v>151.8608277549787</v>
       </c>
       <c r="H43" t="n">
-        <v>93.14882407533429</v>
+        <v>93.14882407533423</v>
       </c>
       <c r="I43" t="n">
         <v>54.9888138237834</v>
@@ -7572,13 +7572,13 @@
         <v>110.1776206746602</v>
       </c>
       <c r="K43" t="n">
-        <v>269.159856785941</v>
+        <v>269.1598567859411</v>
       </c>
       <c r="L43" t="n">
-        <v>503.2367705669547</v>
+        <v>503.2367705669549</v>
       </c>
       <c r="M43" t="n">
-        <v>756.7128692640487</v>
+        <v>756.712869264049</v>
       </c>
       <c r="N43" t="n">
         <v>1009.689534902171</v>
@@ -7587,34 +7587,34 @@
         <v>1239.798175396025</v>
       </c>
       <c r="P43" t="n">
-        <v>1429.331080146479</v>
+        <v>1429.33108014648</v>
       </c>
       <c r="Q43" t="n">
-        <v>1508.858214595248</v>
+        <v>1508.858214595249</v>
       </c>
       <c r="R43" t="n">
-        <v>1508.858214595248</v>
+        <v>1508.858214595249</v>
       </c>
       <c r="S43" t="n">
-        <v>1397.978220860104</v>
+        <v>1397.978220860105</v>
       </c>
       <c r="T43" t="n">
-        <v>1264.286409026658</v>
+        <v>1264.286409026659</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.511452425184</v>
+        <v>1075.511452425185</v>
       </c>
       <c r="V43" t="n">
-        <v>913.1775706545656</v>
+        <v>913.1775706545662</v>
       </c>
       <c r="W43" t="n">
-        <v>797.3356141677501</v>
+        <v>725.4225918429244</v>
       </c>
       <c r="X43" t="n">
-        <v>664.4845727340848</v>
+        <v>592.5715504092591</v>
       </c>
       <c r="Y43" t="n">
-        <v>540.8508365973208</v>
+        <v>468.9378142724952</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1487.418168140532</v>
+        <v>1016.482880002949</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.885832144299</v>
+        <v>732.9505440067154</v>
       </c>
       <c r="D44" t="n">
-        <v>929.463290042481</v>
+        <v>458.5280019048979</v>
       </c>
       <c r="E44" t="n">
-        <v>633.0789928195468</v>
+        <v>336.1836553088051</v>
       </c>
       <c r="F44" t="n">
-        <v>317.3292248006761</v>
+        <v>336.1836553088051</v>
       </c>
       <c r="G44" t="n">
-        <v>54.9888138237834</v>
+        <v>336.1836553088051</v>
       </c>
       <c r="H44" t="n">
-        <v>54.9888138237834</v>
+        <v>107.5652884676706</v>
       </c>
       <c r="I44" t="n">
         <v>54.9888138237834</v>
@@ -7651,10 +7651,10 @@
         <v>174.1100376568462</v>
       </c>
       <c r="K44" t="n">
-        <v>484.8750910679295</v>
+        <v>484.8750910679296</v>
       </c>
       <c r="L44" t="n">
-        <v>920.3766264492897</v>
+        <v>920.3766264492899</v>
       </c>
       <c r="M44" t="n">
         <v>1411.105655084269</v>
@@ -7675,25 +7675,25 @@
         <v>2749.44069118917</v>
       </c>
       <c r="S44" t="n">
-        <v>2749.44069118917</v>
+        <v>2673.521849531077</v>
       </c>
       <c r="T44" t="n">
-        <v>2625.962943019783</v>
+        <v>2550.044101361691</v>
       </c>
       <c r="U44" t="n">
-        <v>2625.962943019783</v>
+        <v>2393.605506315299</v>
       </c>
       <c r="V44" t="n">
-        <v>2625.962943019783</v>
+        <v>2155.0276548822</v>
       </c>
       <c r="W44" t="n">
-        <v>2361.829435548343</v>
+        <v>1890.89414741076</v>
       </c>
       <c r="X44" t="n">
-        <v>2078.200717740795</v>
+        <v>1607.265429603212</v>
       </c>
       <c r="Y44" t="n">
-        <v>1783.060284987592</v>
+        <v>1312.124996850009</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>54.9888138237834</v>
       </c>
       <c r="K45" t="n">
-        <v>133.4264797358081</v>
+        <v>332.4485368778587</v>
       </c>
       <c r="L45" t="n">
-        <v>563.748794398274</v>
+        <v>368.0573249175907</v>
       </c>
       <c r="M45" t="n">
-        <v>1124.051153515471</v>
+        <v>928.3596840347875</v>
       </c>
       <c r="N45" t="n">
-        <v>1712.577951854063</v>
+        <v>1516.88648237338</v>
       </c>
       <c r="O45" t="n">
-        <v>2175.456762724095</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P45" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q45" t="n">
         <v>2534.278698377086</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>455.6968905838999</v>
+        <v>455.6968905838997</v>
       </c>
       <c r="C46" t="n">
-        <v>384.4823437165392</v>
+        <v>384.482343716539</v>
       </c>
       <c r="D46" t="n">
-        <v>329.8118732152608</v>
+        <v>329.8118732152607</v>
       </c>
       <c r="E46" t="n">
-        <v>276.2042816475387</v>
+        <v>276.2042816475386</v>
       </c>
       <c r="F46" t="n">
-        <v>222.1250493442747</v>
+        <v>222.1250493442746</v>
       </c>
       <c r="G46" t="n">
-        <v>151.8608277549789</v>
+        <v>151.8608277549788</v>
       </c>
       <c r="H46" t="n">
-        <v>93.14882407533429</v>
+        <v>93.14882407533426</v>
       </c>
       <c r="I46" t="n">
         <v>54.9888138237834</v>
@@ -7809,13 +7809,13 @@
         <v>110.1776206746602</v>
       </c>
       <c r="K46" t="n">
-        <v>269.159856785941</v>
+        <v>269.1598567859411</v>
       </c>
       <c r="L46" t="n">
-        <v>503.2367705669547</v>
+        <v>503.2367705669549</v>
       </c>
       <c r="M46" t="n">
-        <v>756.7128692640487</v>
+        <v>756.7128692640489</v>
       </c>
       <c r="N46" t="n">
         <v>1009.689534902171</v>
@@ -7830,28 +7830,28 @@
         <v>1508.858214595248</v>
       </c>
       <c r="R46" t="n">
-        <v>1508.858214595248</v>
+        <v>1469.163312456891</v>
       </c>
       <c r="S46" t="n">
-        <v>1469.891243184931</v>
+        <v>1358.283318721747</v>
       </c>
       <c r="T46" t="n">
-        <v>1336.199431351485</v>
+        <v>1224.591506888301</v>
       </c>
       <c r="U46" t="n">
-        <v>1147.424474750011</v>
+        <v>1035.816550286827</v>
       </c>
       <c r="V46" t="n">
-        <v>985.0905929793921</v>
+        <v>873.4826685162087</v>
       </c>
       <c r="W46" t="n">
-        <v>797.3356141677501</v>
+        <v>685.7276897045668</v>
       </c>
       <c r="X46" t="n">
-        <v>664.4845727340848</v>
+        <v>664.4845727340845</v>
       </c>
       <c r="Y46" t="n">
-        <v>540.8508365973208</v>
+        <v>540.8508365973206</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>190.7659506544006</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>203.5031588434685</v>
       </c>
       <c r="M2" t="n">
-        <v>198.6167178772967</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>186.3981141722301</v>
+        <v>198.341060852584</v>
       </c>
       <c r="O2" t="n">
-        <v>198.8977434604743</v>
+        <v>198.415200160258</v>
       </c>
       <c r="P2" t="n">
-        <v>199.8197557315104</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>192.5663197033441</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8057,28 +8057,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>114.9985183470206</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>123.9391158470206</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>124.5183802515017</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>126.9443059417775</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>120.7971527044972</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8142,13 +8142,13 @@
         <v>116.7662189439139</v>
       </c>
       <c r="L4" t="n">
-        <v>109.5937994785061</v>
+        <v>121.0542028586437</v>
       </c>
       <c r="M4" t="n">
         <v>112.8771994574291</v>
       </c>
       <c r="N4" t="n">
-        <v>115.2049082581395</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O4" t="n">
         <v>124.4388841724762</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>159.0427441082865</v>
+        <v>158.5602008080702</v>
       </c>
       <c r="K5" t="n">
         <v>178.8230039740467</v>
@@ -8224,19 +8224,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
-        <v>198.6167178772967</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>198.341060852584</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
         <v>198.8977434604743</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>199.8197557315104</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,25 +8294,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K6" t="n">
-        <v>123.4565725468042</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>126.9443059417775</v>
       </c>
       <c r="N6" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>113.7351914448925</v>
@@ -8376,22 +8376,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>116.2836756436975</v>
+        <v>116.7662189439139</v>
       </c>
       <c r="L7" t="n">
         <v>121.53674615886</v>
       </c>
       <c r="M7" t="n">
-        <v>124.820146137783</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N7" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>123.36440667007</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8455,25 +8455,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>190.7659506544006</v>
+        <v>190.2834073541843</v>
       </c>
       <c r="L8" t="n">
         <v>203.5031588434685</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N8" t="n">
-        <v>198.341060852584</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>198.415200160258</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8531,22 +8531,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L9" t="n">
-        <v>124.0358369512853</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M9" t="n">
-        <v>127.4268492419938</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>118.6580877480622</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O9" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8695,7 +8695,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155881</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8780,13 +8780,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>135.2323409099988</v>
+        <v>497.6787405594836</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>51.55519958243215</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8935,7 +8935,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406826</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9005,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>63.54246159708422</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9017,7 +9017,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>135.2323409099975</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.6622886337165</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9184,7 +9184,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9242,16 +9242,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>63.54246159708422</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>117.503837138378</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9263,7 +9263,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>154.6622886337165</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9488,10 +9488,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>315.1719881289666</v>
       </c>
       <c r="N21" t="n">
-        <v>332.9004919005862</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9719,7 +9719,7 @@
         <v>74.70613214806454</v>
       </c>
       <c r="K24" t="n">
-        <v>142.7724271647859</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9728,7 +9728,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>422.1127056950531</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9956,7 +9956,7 @@
         <v>74.70613214806454</v>
       </c>
       <c r="K27" t="n">
-        <v>142.7724271647859</v>
+        <v>63.54246159708422</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9965,7 +9965,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>504.7069012237324</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.43232306601513</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10202,16 +10202,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>332.9004919005862</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>44.4666606455751</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>393.6432079094694</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.43232306601513</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10430,13 +10430,13 @@
         <v>74.70613214806454</v>
       </c>
       <c r="K33" t="n">
-        <v>142.7724271647859</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>206.716050932845</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.43232306601513</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,16 +10664,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>63.54246159708422</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>363.65426347161</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>117.5038371383779</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10843,7 +10843,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578764</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10901,7 +10901,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>74.70613214806454</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10910,19 +10910,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>315.1719881289666</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>113.3204831175932</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.43232306601513</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236961</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11150,16 +11150,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>135.232340909997</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>123.757004485885</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.43232306601513</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11305,13 +11305,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406825</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415693</v>
       </c>
       <c r="P44" t="n">
         <v>418.3383206229274</v>
@@ -11375,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>74.70613214806454</v>
+        <v>74.70613214806453</v>
       </c>
       <c r="K45" t="n">
-        <v>142.7724271647859</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>83.39191695234143</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11396,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.43232306601513</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>34.68629814616321</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>309.3301514203407</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>150.2396395672808</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>132.4533891611819</v>
+        <v>256.8576028680792</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>267.0437471521529</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6976136440768</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>47.41614036880195</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.52508371286568</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>117.6084011590467</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.2396395672808</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>231.5575033901223</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>111.9912312804301</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>193.1804983135154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>288.7858847220585</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>307.9577008100356</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>121.851121026476</v>
       </c>
       <c r="H26" t="n">
-        <v>85.17827357765202</v>
+        <v>221.6976136440769</v>
       </c>
       <c r="I26" t="n">
         <v>47.41614036880198</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.52508371286569</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>117.6084011590467</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>150.2396395672808</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>288.7858847220584</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6976136440769</v>
+        <v>221.6976136440768</v>
       </c>
       <c r="I29" t="n">
-        <v>47.41614036880198</v>
+        <v>47.41614036880195</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>117.6084011590467</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>172.6697865686448</v>
+        <v>53.82995958456351</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.5544588970246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>292.6856956785895</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>280.6970126362713</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>75.15965324151205</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>122.2429706876931</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>154.8742090959271</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>225.473834093381</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>280.7924306294722</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.7872787536386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>54.12376579626547</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>17.07012630531143</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.29795311697385</v>
+        <v>39.29795311697379</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>71.19389210157824</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>172.2995511205729</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>312.5922703386819</v>
       </c>
       <c r="G44" t="n">
-        <v>54.24771408186342</v>
+        <v>313.9647209489871</v>
       </c>
       <c r="H44" t="n">
-        <v>226.3321831727232</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.05070989744833</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>75.15965324151205</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>154.8742090959271</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>236.1920729187687</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>39.29795311697385</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>71.19389210157868</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>110.4918452185511</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672705.237595737</v>
+        <v>672705.2375957369</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672705.2375957369</v>
+        <v>672705.237595737</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672705.2375957369</v>
+        <v>672705.237595737</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666361.4903613388</v>
+        <v>666361.4903613391</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666361.4903613389</v>
+        <v>666361.4903613391</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>748433.4589818273</v>
       </c>
       <c r="C2" t="n">
+        <v>748433.4589818275</v>
+      </c>
+      <c r="D2" t="n">
+        <v>748433.4589818275</v>
+      </c>
+      <c r="E2" t="n">
+        <v>691829.5368422968</v>
+      </c>
+      <c r="F2" t="n">
+        <v>691829.5368422975</v>
+      </c>
+      <c r="G2" t="n">
         <v>748433.4589818274</v>
       </c>
-      <c r="D2" t="n">
-        <v>748433.4589818274</v>
-      </c>
-      <c r="E2" t="n">
-        <v>691829.5368422967</v>
-      </c>
-      <c r="F2" t="n">
-        <v>691829.5368422968</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>748433.4589818277</v>
+      </c>
+      <c r="I2" t="n">
+        <v>748433.4589818275</v>
+      </c>
+      <c r="J2" t="n">
+        <v>691829.5368422969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>691829.5368422969</v>
+      </c>
+      <c r="L2" t="n">
         <v>748433.4589818276</v>
       </c>
-      <c r="H2" t="n">
-        <v>748433.4589818281</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>748433.4589818277</v>
       </c>
-      <c r="J2" t="n">
-        <v>691829.5368422981</v>
-      </c>
-      <c r="K2" t="n">
-        <v>691829.5368422967</v>
-      </c>
-      <c r="L2" t="n">
-        <v>748433.4589818274</v>
-      </c>
-      <c r="M2" t="n">
-        <v>748433.4589818274</v>
-      </c>
       <c r="N2" t="n">
-        <v>748433.4589818271</v>
+        <v>748433.4589818277</v>
       </c>
       <c r="O2" t="n">
+        <v>683848.6935474095</v>
+      </c>
+      <c r="P2" t="n">
         <v>683848.6935474096</v>
-      </c>
-      <c r="P2" t="n">
-        <v>683848.6935474094</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4002.356120360259</v>
+        <v>4002.356120360235</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>395383.6767847057</v>
+        <v>395383.6767847061</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38966.96337769972</v>
+        <v>38966.96337769977</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>45799.41934185136</v>
+        <v>45799.4193418513</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>77933.92675539952</v>
+        <v>77933.92675539957</v>
       </c>
       <c r="M3" t="n">
-        <v>168316.6744172456</v>
+        <v>168316.6744172455</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>382502.5179362813</v>
       </c>
       <c r="E4" t="n">
-        <v>228902.9555658662</v>
+        <v>228902.9555658661</v>
       </c>
       <c r="F4" t="n">
         <v>228902.9555658661</v>
@@ -26435,7 +26435,7 @@
         <v>261805.2001592817</v>
       </c>
       <c r="H4" t="n">
-        <v>261805.2001592817</v>
+        <v>261805.2001592818</v>
       </c>
       <c r="I4" t="n">
         <v>261805.2001592817</v>
@@ -26447,7 +26447,7 @@
         <v>228902.9555658661</v>
       </c>
       <c r="L4" t="n">
-        <v>261805.2001592817</v>
+        <v>261805.2001592818</v>
       </c>
       <c r="M4" t="n">
         <v>261805.2001592817</v>
@@ -26456,7 +26456,7 @@
         <v>261805.2001592817</v>
       </c>
       <c r="O4" t="n">
-        <v>224219.5111472441</v>
+        <v>224219.5111472442</v>
       </c>
       <c r="P4" t="n">
         <v>224219.5111472441</v>
@@ -26478,19 +26478,19 @@
         <v>34353.73115816552</v>
       </c>
       <c r="E5" t="n">
-        <v>53412.07818599471</v>
+        <v>53412.07818599472</v>
       </c>
       <c r="F5" t="n">
         <v>53412.07818599472</v>
       </c>
       <c r="G5" t="n">
-        <v>57506.97024124452</v>
+        <v>57506.97024124453</v>
       </c>
       <c r="H5" t="n">
-        <v>57506.97024124452</v>
+        <v>57506.97024124453</v>
       </c>
       <c r="I5" t="n">
-        <v>57506.97024124452</v>
+        <v>57506.97024124453</v>
       </c>
       <c r="J5" t="n">
         <v>53412.07818599472</v>
@@ -26508,10 +26508,10 @@
         <v>57506.97024124453</v>
       </c>
       <c r="O5" t="n">
-        <v>53022.45456029095</v>
+        <v>53022.45456029096</v>
       </c>
       <c r="P5" t="n">
-        <v>53022.45456029095</v>
+        <v>53022.45456029096</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>327574.8537670203</v>
       </c>
       <c r="C6" t="n">
-        <v>331577.2098873806</v>
+        <v>331577.2098873807</v>
       </c>
       <c r="D6" t="n">
-        <v>331577.2098873806</v>
+        <v>331577.2098873807</v>
       </c>
       <c r="E6" t="n">
-        <v>14130.82630573015</v>
+        <v>12679.44368676762</v>
       </c>
       <c r="F6" t="n">
-        <v>409514.503090436</v>
+        <v>408063.1204714744</v>
       </c>
       <c r="G6" t="n">
-        <v>390154.3252036017</v>
+        <v>390154.3252036014</v>
       </c>
       <c r="H6" t="n">
-        <v>429121.2885813018</v>
+        <v>429121.2885813015</v>
       </c>
       <c r="I6" t="n">
+        <v>429121.2885813012</v>
+      </c>
+      <c r="J6" t="n">
+        <v>362263.7011296226</v>
+      </c>
+      <c r="K6" t="n">
+        <v>408063.1204714738</v>
+      </c>
+      <c r="L6" t="n">
+        <v>351187.3618259017</v>
+      </c>
+      <c r="M6" t="n">
+        <v>260804.6141640559</v>
+      </c>
+      <c r="N6" t="n">
         <v>429121.2885813015</v>
       </c>
-      <c r="J6" t="n">
-        <v>363715.083748586</v>
-      </c>
-      <c r="K6" t="n">
-        <v>409514.5030904359</v>
-      </c>
-      <c r="L6" t="n">
-        <v>351187.3618259016</v>
-      </c>
-      <c r="M6" t="n">
-        <v>260804.6141640556</v>
-      </c>
-      <c r="N6" t="n">
-        <v>429121.2885813009</v>
-      </c>
       <c r="O6" t="n">
-        <v>406606.7278398746</v>
+        <v>404950.7082133508</v>
       </c>
       <c r="P6" t="n">
-        <v>406606.7278398743</v>
+        <v>404950.708213351</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>102.0519779728957</v>
       </c>
       <c r="G2" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="H2" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="I2" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="J2" t="n">
         <v>102.0519779728957</v>
@@ -26724,10 +26724,10 @@
         <v>150.7606821950204</v>
       </c>
       <c r="O2" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="P2" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
     </row>
     <row r="3">
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.5033001704571</v>
+        <v>139.5033001704576</v>
       </c>
       <c r="F3" t="n">
-        <v>139.5033001704577</v>
+        <v>139.5033001704576</v>
       </c>
       <c r="G3" t="n">
-        <v>139.5033001704577</v>
+        <v>139.5033001704576</v>
       </c>
       <c r="H3" t="n">
         <v>139.5033001704577</v>
@@ -26798,7 +26798,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>687.3601727972924</v>
+        <v>687.3601727972923</v>
       </c>
       <c r="F4" t="n">
         <v>687.3601727972924</v>
@@ -26819,19 +26819,19 @@
         <v>687.3601727972924</v>
       </c>
       <c r="L4" t="n">
-        <v>687.3601727972924</v>
+        <v>687.3601727972923</v>
       </c>
       <c r="M4" t="n">
         <v>687.3601727972925</v>
       </c>
       <c r="N4" t="n">
-        <v>687.3601727972924</v>
+        <v>687.3601727972925</v>
       </c>
       <c r="O4" t="n">
-        <v>687.3601727972924</v>
+        <v>687.3601727972925</v>
       </c>
       <c r="P4" t="n">
-        <v>687.3601727972924</v>
+        <v>687.3601727972925</v>
       </c>
     </row>
   </sheetData>
@@ -26922,22 +26922,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>48.70870422212465</v>
+        <v>48.70870422212471</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.34327375077106</v>
+        <v>53.34327375077098</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>97.4174084442494</v>
+        <v>97.41740844424947</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.5033001704571</v>
+        <v>139.5033001704576</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>675.4172261169385</v>
+        <v>675.4172261169384</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>675.4172261169387</v>
+        <v>675.4172261169385</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,19 +27159,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48.70870422212465</v>
+        <v>48.70870422212471</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.34327375077106</v>
+        <v>53.34327375077098</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>675.4172261169385</v>
+        <v>675.4172261169384</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>399.4903313468757</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>77.7889569587513</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>174.8373381798939</v>
       </c>
       <c r="T2" t="n">
-        <v>210.172410125945</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27472,13 +27472,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>115.4982682965944</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>86.99553219841505</v>
       </c>
       <c r="I3" t="n">
-        <v>57.17911502078391</v>
+        <v>55.75551577648572</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>48.66707877994797</v>
       </c>
       <c r="S3" t="n">
-        <v>139.3285454370332</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>204.366897797319</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>226.9597633986692</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>155.9768631625826</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27554,7 +27554,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>147.2595713324632</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27590,16 +27590,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>218.9042169721241</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>272.3753904354372</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>272.7754900317192</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>379.5837566867833</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27627,7 +27627,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>399.4903313468757</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27669,13 +27669,13 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>210.172410125945</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>321.6665346826642</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27684,7 +27684,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>377.6634901895665</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>121.4039133892705</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>116.9218675408926</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>86.99553219841505</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>55.75551577648572</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>174.8553061153208</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>204.366897797319</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.7768683171821</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27788,16 +27788,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>156.7112037097728</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>137.5072161357099</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>199.6297182899954</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27833,10 +27833,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1850047168077</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>271.351890787421</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>210.172410125945</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27934,22 +27934,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>149.5672885953991</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>125.5073039593362</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>121.4039133892705</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>115.4982682965944</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>86.99553219841505</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.66707877994797</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>139.3285454370332</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28034,7 +28034,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>201.0533175342936</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>218.9042169721241</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>272.3753904354372</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1850047168077</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28079,7 +28079,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>209.29545978359</v>
       </c>
     </row>
     <row r="11">
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.50346472721582</v>
+        <v>54.50346472721569</v>
       </c>
       <c r="S11" t="n">
         <v>102.0519779728957</v>
@@ -28514,7 +28514,7 @@
         <v>102.0519779728957</v>
       </c>
       <c r="L16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.0519779728953</v>
       </c>
       <c r="M16" t="n">
         <v>102.0519779728957</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="C17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="D17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="E17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="F17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="G17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="H17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="I17" t="n">
         <v>149.4681183416977</v>
@@ -28614,25 +28614,25 @@
         <v>54.50346472721569</v>
       </c>
       <c r="S17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="T17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="U17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="V17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="W17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="X17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="Y17" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
     </row>
     <row r="18">
@@ -28721,31 +28721,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="C19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="D19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="G19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="H19" t="n">
-        <v>143.8836837193971</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="I19" t="n">
-        <v>135.1958185932847</v>
+        <v>128.3188201176609</v>
       </c>
       <c r="J19" t="n">
-        <v>41.67113889790917</v>
+        <v>41.67113889790919</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>136.7153615612232</v>
       </c>
       <c r="S19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="T19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="U19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="V19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="W19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="X19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="C20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="D20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="E20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="F20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="G20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="H20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="I20" t="n">
         <v>149.4681183416977</v>
@@ -28851,25 +28851,25 @@
         <v>54.50346472721569</v>
       </c>
       <c r="S20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="T20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="U20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="V20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="W20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="X20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="Y20" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
     </row>
     <row r="21">
@@ -28958,25 +28958,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="C22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="D22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="G22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="I22" t="n">
         <v>135.1958185932847</v>
@@ -29003,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.20997113148556</v>
+        <v>10.20997113148432</v>
       </c>
       <c r="R22" t="n">
         <v>136.7153615612232</v>
       </c>
       <c r="S22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="T22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="U22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="V22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="W22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="X22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="C23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="D23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="E23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="F23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="G23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="H23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="I23" t="n">
         <v>149.4681183416977</v>
@@ -29088,25 +29088,25 @@
         <v>54.50346472721569</v>
       </c>
       <c r="S23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="T23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="U23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="V23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="W23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="X23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="Y23" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
     </row>
     <row r="24">
@@ -29195,25 +29195,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="C25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="D25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="G25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="H25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="I25" t="n">
         <v>135.1958185932847</v>
@@ -29246,25 +29246,25 @@
         <v>136.7153615612232</v>
       </c>
       <c r="S25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="T25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="U25" t="n">
-        <v>150.7606821950204</v>
+        <v>143.8836837193961</v>
       </c>
       <c r="V25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="W25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="X25" t="n">
-        <v>150.7606821950204</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.8836837193971</v>
+        <v>150.7606821950205</v>
       </c>
     </row>
     <row r="26">
@@ -29924,7 +29924,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7606821950205</v>
+        <v>143.8836837193957</v>
       </c>
       <c r="I34" t="n">
         <v>135.1958185932847</v>
@@ -29966,7 +29966,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="V34" t="n">
-        <v>143.8836837193966</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="W34" t="n">
         <v>150.7606821950205</v>
@@ -30149,7 +30149,7 @@
         <v>150.7606821950204</v>
       </c>
       <c r="D37" t="n">
-        <v>150.7606821950204</v>
+        <v>143.8836837193971</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30197,7 +30197,7 @@
         <v>150.7606821950204</v>
       </c>
       <c r="T37" t="n">
-        <v>143.8836837193969</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="U37" t="n">
         <v>150.7606821950204</v>
@@ -30431,13 +30431,13 @@
         <v>136.7153615612232</v>
       </c>
       <c r="S40" t="n">
-        <v>150.7606821950204</v>
+        <v>143.8836837193972</v>
       </c>
       <c r="T40" t="n">
         <v>150.7606821950204</v>
       </c>
       <c r="U40" t="n">
-        <v>143.8836837193969</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="V40" t="n">
         <v>150.7606821950204</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="C41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="D41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="E41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="F41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="G41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="H41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.50346472721569</v>
+        <v>54.50346472721567</v>
       </c>
       <c r="S41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="T41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="U41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="V41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="W41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="X41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="C43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="D43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="E43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="F43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="G43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="H43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="I43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="J43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="K43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="L43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="M43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="N43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="O43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="P43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="R43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="S43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="T43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="U43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="V43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="W43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="X43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424942</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="C44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="D44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="E44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="F44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="G44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="H44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.50346472721569</v>
+        <v>54.50346472721567</v>
       </c>
       <c r="S44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="T44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="U44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="V44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="W44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="X44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="C46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="D46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="E46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="F46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="G46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="I46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="J46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="K46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="L46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="M46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="N46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="O46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="P46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="R46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="S46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="T46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="U46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="V46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="W46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="X46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.41740844424936</v>
+        <v>97.41740844424939</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5608172871174152</v>
+        <v>0.5608172871174172</v>
       </c>
       <c r="H11" t="n">
-        <v>5.743470041691229</v>
+        <v>5.743470041691251</v>
       </c>
       <c r="I11" t="n">
-        <v>21.62090846159417</v>
+        <v>21.62090846159425</v>
       </c>
       <c r="J11" t="n">
-        <v>47.59866622248176</v>
+        <v>47.59866622248193</v>
       </c>
       <c r="K11" t="n">
-        <v>71.33806198616196</v>
+        <v>71.33806198616222</v>
       </c>
       <c r="L11" t="n">
-        <v>88.50117403678156</v>
+        <v>88.50117403678189</v>
       </c>
       <c r="M11" t="n">
-        <v>98.47460846655589</v>
+        <v>98.47460846655625</v>
       </c>
       <c r="N11" t="n">
-        <v>100.0680305835783</v>
+        <v>100.0680305835786</v>
       </c>
       <c r="O11" t="n">
-        <v>94.49140368480445</v>
+        <v>94.49140368480481</v>
       </c>
       <c r="P11" t="n">
-        <v>80.64622690909326</v>
+        <v>80.64622690909356</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.56195781420081</v>
+        <v>60.56195781420103</v>
       </c>
       <c r="R11" t="n">
-        <v>35.22843891188936</v>
+        <v>35.22843891188949</v>
       </c>
       <c r="S11" t="n">
-        <v>12.77962393018811</v>
+        <v>12.77962393018816</v>
       </c>
       <c r="T11" t="n">
-        <v>2.454977674356486</v>
+        <v>2.454977674356495</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0448653829693932</v>
+        <v>0.04486538296939337</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3000637022534361</v>
+        <v>0.3000637022534372</v>
       </c>
       <c r="H12" t="n">
-        <v>2.897983650710817</v>
+        <v>2.897983650710828</v>
       </c>
       <c r="I12" t="n">
-        <v>10.33114062583102</v>
+        <v>10.33114062583106</v>
       </c>
       <c r="J12" t="n">
-        <v>28.34943951860205</v>
+        <v>28.34943951860215</v>
       </c>
       <c r="K12" t="n">
-        <v>48.45370756958226</v>
+        <v>48.45370756958245</v>
       </c>
       <c r="L12" t="n">
-        <v>65.15198938621208</v>
+        <v>65.15198938621232</v>
       </c>
       <c r="M12" t="n">
-        <v>76.02929859289912</v>
+        <v>76.02929859289939</v>
       </c>
       <c r="N12" t="n">
-        <v>78.0415678944145</v>
+        <v>78.0415678944148</v>
       </c>
       <c r="O12" t="n">
-        <v>71.39278796553573</v>
+        <v>71.39278796553599</v>
       </c>
       <c r="P12" t="n">
-        <v>57.29900644171097</v>
+        <v>57.29900644171118</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.30286837887721</v>
+        <v>38.30286837887736</v>
       </c>
       <c r="R12" t="n">
-        <v>18.6302709171037</v>
+        <v>18.63027091710376</v>
       </c>
       <c r="S12" t="n">
-        <v>5.573551662470618</v>
+        <v>5.573551662470638</v>
       </c>
       <c r="T12" t="n">
-        <v>1.209467291100472</v>
+        <v>1.209467291100477</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01974103304298922</v>
+        <v>0.0197410330429893</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2515633281762341</v>
+        <v>0.2515633281762351</v>
       </c>
       <c r="H13" t="n">
-        <v>2.236626681421429</v>
+        <v>2.236626681421437</v>
       </c>
       <c r="I13" t="n">
-        <v>7.56519536006348</v>
+        <v>7.565195360063507</v>
       </c>
       <c r="J13" t="n">
-        <v>17.78552730205975</v>
+        <v>17.78552730205982</v>
       </c>
       <c r="K13" t="n">
-        <v>29.22708485538429</v>
+        <v>29.22708485538439</v>
       </c>
       <c r="L13" t="n">
-        <v>37.40060608176485</v>
+        <v>37.40060608176499</v>
       </c>
       <c r="M13" t="n">
-        <v>39.43369516129822</v>
+        <v>39.43369516129837</v>
       </c>
       <c r="N13" t="n">
-        <v>38.49605002900502</v>
+        <v>38.49605002900516</v>
       </c>
       <c r="O13" t="n">
-        <v>35.55733296803718</v>
+        <v>35.55733296803731</v>
       </c>
       <c r="P13" t="n">
-        <v>30.42544107324198</v>
+        <v>30.42544107324209</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.06499832573903</v>
+        <v>21.0649983257391</v>
       </c>
       <c r="R13" t="n">
-        <v>11.31120201054231</v>
+        <v>11.31120201054235</v>
       </c>
       <c r="S13" t="n">
-        <v>4.384062728307643</v>
+        <v>4.384062728307659</v>
       </c>
       <c r="T13" t="n">
-        <v>1.074861493116636</v>
+        <v>1.07486149311664</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01372163608234006</v>
+        <v>0.01372163608234011</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5608172871174173</v>
+        <v>0.5608172871174172</v>
       </c>
       <c r="H14" t="n">
-        <v>5.743470041691252</v>
+        <v>5.743470041691251</v>
       </c>
       <c r="I14" t="n">
         <v>21.62090846159425</v>
       </c>
       <c r="J14" t="n">
-        <v>47.59866622248194</v>
+        <v>47.59866622248193</v>
       </c>
       <c r="K14" t="n">
-        <v>71.33806198616223</v>
+        <v>71.33806198616222</v>
       </c>
       <c r="L14" t="n">
-        <v>88.5011740367819</v>
+        <v>88.50117403678189</v>
       </c>
       <c r="M14" t="n">
-        <v>98.47460846655628</v>
+        <v>98.47460846655625</v>
       </c>
       <c r="N14" t="n">
         <v>100.0680305835786</v>
       </c>
       <c r="O14" t="n">
-        <v>94.49140368480482</v>
+        <v>94.49140368480481</v>
       </c>
       <c r="P14" t="n">
-        <v>80.64622690909357</v>
+        <v>80.64622690909356</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.56195781420104</v>
+        <v>60.56195781420103</v>
       </c>
       <c r="R14" t="n">
-        <v>35.2284389118895</v>
+        <v>35.22843891188949</v>
       </c>
       <c r="S14" t="n">
         <v>12.77962393018816</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3000637022534373</v>
+        <v>0.3000637022534372</v>
       </c>
       <c r="H15" t="n">
-        <v>2.897983650710829</v>
+        <v>2.897983650710828</v>
       </c>
       <c r="I15" t="n">
         <v>10.33114062583106</v>
       </c>
       <c r="J15" t="n">
-        <v>28.34943951860216</v>
+        <v>28.34943951860215</v>
       </c>
       <c r="K15" t="n">
-        <v>48.45370756958246</v>
+        <v>48.45370756958245</v>
       </c>
       <c r="L15" t="n">
-        <v>65.15198938621234</v>
+        <v>65.15198938621232</v>
       </c>
       <c r="M15" t="n">
-        <v>76.02929859289942</v>
+        <v>76.02929859289939</v>
       </c>
       <c r="N15" t="n">
-        <v>78.04156789441481</v>
+        <v>78.0415678944148</v>
       </c>
       <c r="O15" t="n">
-        <v>71.392787965536</v>
+        <v>71.39278796553599</v>
       </c>
       <c r="P15" t="n">
-        <v>57.29900644171119</v>
+        <v>57.29900644171118</v>
       </c>
       <c r="Q15" t="n">
         <v>38.30286837887736</v>
       </c>
       <c r="R15" t="n">
-        <v>18.63027091710377</v>
+        <v>18.63027091710376</v>
       </c>
       <c r="S15" t="n">
-        <v>5.57355166247064</v>
+        <v>5.573551662470638</v>
       </c>
       <c r="T15" t="n">
         <v>1.209467291100477</v>
@@ -32153,22 +32153,22 @@
         <v>2.236626681421437</v>
       </c>
       <c r="I16" t="n">
-        <v>7.565195360063509</v>
+        <v>7.565195360063507</v>
       </c>
       <c r="J16" t="n">
         <v>17.78552730205982</v>
       </c>
       <c r="K16" t="n">
-        <v>29.2270848553844</v>
+        <v>29.22708485538439</v>
       </c>
       <c r="L16" t="n">
-        <v>37.400606081765</v>
+        <v>37.40060608176499</v>
       </c>
       <c r="M16" t="n">
         <v>39.43369516129837</v>
       </c>
       <c r="N16" t="n">
-        <v>38.49605002900517</v>
+        <v>38.49605002900516</v>
       </c>
       <c r="O16" t="n">
         <v>35.55733296803731</v>
@@ -32177,16 +32177,16 @@
         <v>30.42544107324209</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.06499832573911</v>
+        <v>21.0649983257391</v>
       </c>
       <c r="R16" t="n">
         <v>11.31120201054235</v>
       </c>
       <c r="S16" t="n">
-        <v>4.38406272830766</v>
+        <v>4.384062728307659</v>
       </c>
       <c r="T16" t="n">
-        <v>1.074861493116641</v>
+        <v>1.07486149311664</v>
       </c>
       <c r="U16" t="n">
         <v>0.01372163608234011</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5608172871174173</v>
+        <v>0.5608172871174172</v>
       </c>
       <c r="H17" t="n">
-        <v>5.743470041691252</v>
+        <v>5.743470041691251</v>
       </c>
       <c r="I17" t="n">
         <v>21.62090846159425</v>
       </c>
       <c r="J17" t="n">
-        <v>47.59866622248194</v>
+        <v>47.59866622248193</v>
       </c>
       <c r="K17" t="n">
-        <v>71.33806198616223</v>
+        <v>71.33806198616222</v>
       </c>
       <c r="L17" t="n">
-        <v>88.5011740367819</v>
+        <v>88.50117403678189</v>
       </c>
       <c r="M17" t="n">
-        <v>98.47460846655628</v>
+        <v>98.47460846655625</v>
       </c>
       <c r="N17" t="n">
         <v>100.0680305835786</v>
       </c>
       <c r="O17" t="n">
-        <v>94.49140368480482</v>
+        <v>94.49140368480481</v>
       </c>
       <c r="P17" t="n">
-        <v>80.64622690909357</v>
+        <v>80.64622690909356</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.56195781420104</v>
+        <v>60.56195781420103</v>
       </c>
       <c r="R17" t="n">
-        <v>35.2284389118895</v>
+        <v>35.22843891188949</v>
       </c>
       <c r="S17" t="n">
         <v>12.77962393018816</v>
@@ -32305,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3000637022534373</v>
+        <v>0.3000637022534372</v>
       </c>
       <c r="H18" t="n">
-        <v>2.897983650710829</v>
+        <v>2.897983650710828</v>
       </c>
       <c r="I18" t="n">
         <v>10.33114062583106</v>
       </c>
       <c r="J18" t="n">
-        <v>28.34943951860216</v>
+        <v>28.34943951860215</v>
       </c>
       <c r="K18" t="n">
-        <v>48.45370756958246</v>
+        <v>48.45370756958245</v>
       </c>
       <c r="L18" t="n">
-        <v>65.15198938621234</v>
+        <v>65.15198938621232</v>
       </c>
       <c r="M18" t="n">
-        <v>76.02929859289942</v>
+        <v>76.02929859289939</v>
       </c>
       <c r="N18" t="n">
-        <v>78.04156789441481</v>
+        <v>78.0415678944148</v>
       </c>
       <c r="O18" t="n">
-        <v>71.392787965536</v>
+        <v>71.39278796553599</v>
       </c>
       <c r="P18" t="n">
-        <v>57.29900644171119</v>
+        <v>57.29900644171118</v>
       </c>
       <c r="Q18" t="n">
         <v>38.30286837887736</v>
       </c>
       <c r="R18" t="n">
-        <v>18.63027091710377</v>
+        <v>18.63027091710376</v>
       </c>
       <c r="S18" t="n">
-        <v>5.57355166247064</v>
+        <v>5.573551662470638</v>
       </c>
       <c r="T18" t="n">
         <v>1.209467291100477</v>
@@ -32390,22 +32390,22 @@
         <v>2.236626681421437</v>
       </c>
       <c r="I19" t="n">
-        <v>7.565195360063509</v>
+        <v>7.565195360063507</v>
       </c>
       <c r="J19" t="n">
         <v>17.78552730205982</v>
       </c>
       <c r="K19" t="n">
-        <v>29.2270848553844</v>
+        <v>29.22708485538439</v>
       </c>
       <c r="L19" t="n">
-        <v>37.400606081765</v>
+        <v>37.40060608176499</v>
       </c>
       <c r="M19" t="n">
         <v>39.43369516129837</v>
       </c>
       <c r="N19" t="n">
-        <v>38.49605002900517</v>
+        <v>38.49605002900516</v>
       </c>
       <c r="O19" t="n">
         <v>35.55733296803731</v>
@@ -32414,16 +32414,16 @@
         <v>30.42544107324209</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.06499832573911</v>
+        <v>21.0649983257391</v>
       </c>
       <c r="R19" t="n">
         <v>11.31120201054235</v>
       </c>
       <c r="S19" t="n">
-        <v>4.38406272830766</v>
+        <v>4.384062728307659</v>
       </c>
       <c r="T19" t="n">
-        <v>1.074861493116641</v>
+        <v>1.07486149311664</v>
       </c>
       <c r="U19" t="n">
         <v>0.01372163608234011</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5608172871174173</v>
+        <v>0.5608172871174175</v>
       </c>
       <c r="H41" t="n">
-        <v>5.743470041691252</v>
+        <v>5.743470041691254</v>
       </c>
       <c r="I41" t="n">
-        <v>21.62090846159425</v>
+        <v>21.62090846159426</v>
       </c>
       <c r="J41" t="n">
-        <v>47.59866622248194</v>
+        <v>47.59866622248196</v>
       </c>
       <c r="K41" t="n">
-        <v>71.33806198616223</v>
+        <v>71.33806198616226</v>
       </c>
       <c r="L41" t="n">
-        <v>88.5011740367819</v>
+        <v>88.50117403678195</v>
       </c>
       <c r="M41" t="n">
-        <v>98.47460846655628</v>
+        <v>98.47460846655632</v>
       </c>
       <c r="N41" t="n">
-        <v>100.0680305835786</v>
+        <v>100.0680305835787</v>
       </c>
       <c r="O41" t="n">
-        <v>94.49140368480482</v>
+        <v>94.49140368480487</v>
       </c>
       <c r="P41" t="n">
-        <v>80.64622690909357</v>
+        <v>80.6462269090936</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.56195781420104</v>
+        <v>60.56195781420107</v>
       </c>
       <c r="R41" t="n">
-        <v>35.2284389118895</v>
+        <v>35.22843891188951</v>
       </c>
       <c r="S41" t="n">
-        <v>12.77962393018816</v>
+        <v>12.77962393018817</v>
       </c>
       <c r="T41" t="n">
-        <v>2.454977674356495</v>
+        <v>2.454977674356496</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04486538296939337</v>
+        <v>0.04486538296939339</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3000637022534373</v>
+        <v>0.3000637022534374</v>
       </c>
       <c r="H42" t="n">
-        <v>2.897983650710829</v>
+        <v>2.89798365071083</v>
       </c>
       <c r="I42" t="n">
-        <v>10.33114062583106</v>
+        <v>10.33114062583107</v>
       </c>
       <c r="J42" t="n">
-        <v>28.34943951860216</v>
+        <v>28.34943951860217</v>
       </c>
       <c r="K42" t="n">
-        <v>48.45370756958246</v>
+        <v>48.45370756958248</v>
       </c>
       <c r="L42" t="n">
-        <v>65.15198938621234</v>
+        <v>65.15198938621236</v>
       </c>
       <c r="M42" t="n">
-        <v>76.02929859289942</v>
+        <v>76.02929859289945</v>
       </c>
       <c r="N42" t="n">
-        <v>78.04156789441481</v>
+        <v>78.04156789441484</v>
       </c>
       <c r="O42" t="n">
-        <v>71.392787965536</v>
+        <v>71.39278796553603</v>
       </c>
       <c r="P42" t="n">
-        <v>57.29900644171119</v>
+        <v>57.29900644171121</v>
       </c>
       <c r="Q42" t="n">
-        <v>38.30286837887736</v>
+        <v>38.30286837887738</v>
       </c>
       <c r="R42" t="n">
-        <v>18.63027091710377</v>
+        <v>18.63027091710378</v>
       </c>
       <c r="S42" t="n">
-        <v>5.57355166247064</v>
+        <v>5.573551662470642</v>
       </c>
       <c r="T42" t="n">
         <v>1.209467291100477</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0197410330429893</v>
+        <v>0.01974103304298931</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,34 +34280,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2515633281762351</v>
+        <v>0.2515633281762352</v>
       </c>
       <c r="H43" t="n">
-        <v>2.236626681421437</v>
+        <v>2.236626681421438</v>
       </c>
       <c r="I43" t="n">
-        <v>7.565195360063509</v>
+        <v>7.565195360063512</v>
       </c>
       <c r="J43" t="n">
-        <v>17.78552730205982</v>
+        <v>17.78552730205983</v>
       </c>
       <c r="K43" t="n">
-        <v>29.2270848553844</v>
+        <v>29.22708485538441</v>
       </c>
       <c r="L43" t="n">
-        <v>37.400606081765</v>
+        <v>37.40060608176501</v>
       </c>
       <c r="M43" t="n">
-        <v>39.43369516129837</v>
+        <v>39.4336951612984</v>
       </c>
       <c r="N43" t="n">
-        <v>38.49605002900517</v>
+        <v>38.49605002900518</v>
       </c>
       <c r="O43" t="n">
-        <v>35.55733296803731</v>
+        <v>35.55733296803733</v>
       </c>
       <c r="P43" t="n">
-        <v>30.42544107324209</v>
+        <v>30.42544107324211</v>
       </c>
       <c r="Q43" t="n">
         <v>21.06499832573911</v>
@@ -34316,13 +34316,13 @@
         <v>11.31120201054235</v>
       </c>
       <c r="S43" t="n">
-        <v>4.38406272830766</v>
+        <v>4.384062728307661</v>
       </c>
       <c r="T43" t="n">
         <v>1.074861493116641</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01372163608234011</v>
+        <v>0.01372163608234012</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5608172871174173</v>
+        <v>0.5608172871174175</v>
       </c>
       <c r="H44" t="n">
-        <v>5.743470041691252</v>
+        <v>5.743470041691254</v>
       </c>
       <c r="I44" t="n">
-        <v>21.62090846159425</v>
+        <v>21.62090846159426</v>
       </c>
       <c r="J44" t="n">
-        <v>47.59866622248194</v>
+        <v>47.59866622248196</v>
       </c>
       <c r="K44" t="n">
-        <v>71.33806198616223</v>
+        <v>71.33806198616226</v>
       </c>
       <c r="L44" t="n">
-        <v>88.5011740367819</v>
+        <v>88.50117403678195</v>
       </c>
       <c r="M44" t="n">
-        <v>98.47460846655628</v>
+        <v>98.47460846655632</v>
       </c>
       <c r="N44" t="n">
-        <v>100.0680305835786</v>
+        <v>100.0680305835787</v>
       </c>
       <c r="O44" t="n">
-        <v>94.49140368480482</v>
+        <v>94.49140368480487</v>
       </c>
       <c r="P44" t="n">
-        <v>80.64622690909357</v>
+        <v>80.6462269090936</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.56195781420104</v>
+        <v>60.56195781420107</v>
       </c>
       <c r="R44" t="n">
-        <v>35.2284389118895</v>
+        <v>35.22843891188951</v>
       </c>
       <c r="S44" t="n">
-        <v>12.77962393018816</v>
+        <v>12.77962393018817</v>
       </c>
       <c r="T44" t="n">
-        <v>2.454977674356495</v>
+        <v>2.454977674356496</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04486538296939337</v>
+        <v>0.04486538296939339</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3000637022534373</v>
+        <v>0.3000637022534374</v>
       </c>
       <c r="H45" t="n">
-        <v>2.897983650710829</v>
+        <v>2.89798365071083</v>
       </c>
       <c r="I45" t="n">
-        <v>10.33114062583106</v>
+        <v>10.33114062583107</v>
       </c>
       <c r="J45" t="n">
-        <v>28.34943951860216</v>
+        <v>28.34943951860217</v>
       </c>
       <c r="K45" t="n">
-        <v>48.45370756958246</v>
+        <v>48.45370756958248</v>
       </c>
       <c r="L45" t="n">
-        <v>65.15198938621234</v>
+        <v>65.15198938621236</v>
       </c>
       <c r="M45" t="n">
-        <v>76.02929859289942</v>
+        <v>76.02929859289945</v>
       </c>
       <c r="N45" t="n">
-        <v>78.04156789441481</v>
+        <v>78.04156789441484</v>
       </c>
       <c r="O45" t="n">
-        <v>71.392787965536</v>
+        <v>71.39278796553603</v>
       </c>
       <c r="P45" t="n">
-        <v>57.29900644171119</v>
+        <v>57.29900644171121</v>
       </c>
       <c r="Q45" t="n">
-        <v>38.30286837887736</v>
+        <v>38.30286837887738</v>
       </c>
       <c r="R45" t="n">
-        <v>18.63027091710377</v>
+        <v>18.63027091710378</v>
       </c>
       <c r="S45" t="n">
-        <v>5.57355166247064</v>
+        <v>5.573551662470642</v>
       </c>
       <c r="T45" t="n">
         <v>1.209467291100477</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0197410330429893</v>
+        <v>0.01974103304298931</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,34 +34517,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2515633281762351</v>
+        <v>0.2515633281762352</v>
       </c>
       <c r="H46" t="n">
-        <v>2.236626681421437</v>
+        <v>2.236626681421438</v>
       </c>
       <c r="I46" t="n">
-        <v>7.565195360063509</v>
+        <v>7.565195360063512</v>
       </c>
       <c r="J46" t="n">
-        <v>17.78552730205982</v>
+        <v>17.78552730205983</v>
       </c>
       <c r="K46" t="n">
-        <v>29.2270848553844</v>
+        <v>29.22708485538441</v>
       </c>
       <c r="L46" t="n">
-        <v>37.400606081765</v>
+        <v>37.40060608176501</v>
       </c>
       <c r="M46" t="n">
-        <v>39.43369516129837</v>
+        <v>39.4336951612984</v>
       </c>
       <c r="N46" t="n">
-        <v>38.49605002900517</v>
+        <v>38.49605002900518</v>
       </c>
       <c r="O46" t="n">
-        <v>35.55733296803731</v>
+        <v>35.55733296803733</v>
       </c>
       <c r="P46" t="n">
-        <v>30.42544107324209</v>
+        <v>30.42544107324211</v>
       </c>
       <c r="Q46" t="n">
         <v>21.06499832573911</v>
@@ -34553,13 +34553,13 @@
         <v>11.31120201054235</v>
       </c>
       <c r="S46" t="n">
-        <v>4.38406272830766</v>
+        <v>4.384062728307661</v>
       </c>
       <c r="T46" t="n">
         <v>1.074861493116641</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01372163608234011</v>
+        <v>0.01372163608234012</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="O2" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>11.94294668035388</v>
-      </c>
       <c r="P2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="O3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Q3" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="M3" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>11.94294668035388</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K6" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="M6" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L7" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="N7" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="O8" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="M9" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11.94294668035388</v>
-      </c>
       <c r="O9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>120.3244685182451</v>
+        <v>120.3244685182452</v>
       </c>
       <c r="K11" t="n">
-        <v>313.9040943546294</v>
+        <v>313.9040943546296</v>
       </c>
       <c r="L11" t="n">
-        <v>439.900540789255</v>
+        <v>439.9005407892528</v>
       </c>
       <c r="M11" t="n">
-        <v>495.6858875100791</v>
+        <v>495.6858875100794</v>
       </c>
       <c r="N11" t="n">
-        <v>482.2209181469275</v>
+        <v>482.2209181469278</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5768425462529</v>
+        <v>402.5768425462533</v>
       </c>
       <c r="P11" t="n">
-        <v>311.1077384808642</v>
+        <v>311.1077384808645</v>
       </c>
       <c r="Q11" t="n">
-        <v>155.9480726490867</v>
+        <v>155.9480726490869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.21221379446685</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K12" t="n">
-        <v>280.2623465192678</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L12" t="n">
-        <v>434.6690047095612</v>
+        <v>434.6690047095615</v>
       </c>
       <c r="M12" t="n">
-        <v>565.9619789062592</v>
+        <v>565.9619789062594</v>
       </c>
       <c r="N12" t="n">
-        <v>106.5587677367049</v>
+        <v>469.0051673861901</v>
       </c>
       <c r="O12" t="n">
-        <v>467.554354414173</v>
+        <v>467.5543544141732</v>
       </c>
       <c r="P12" t="n">
-        <v>362.446399649486</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.6681509905885</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.3808390749865</v>
+        <v>60.38083907498655</v>
       </c>
       <c r="K13" t="n">
-        <v>165.2226868127683</v>
+        <v>165.2226868127684</v>
       </c>
       <c r="L13" t="n">
-        <v>241.0758965801753</v>
+        <v>241.0758965801754</v>
       </c>
       <c r="M13" t="n">
-        <v>260.6710328590442</v>
+        <v>260.6710328590443</v>
       </c>
       <c r="N13" t="n">
-        <v>260.1665550216991</v>
+        <v>260.1665550216993</v>
       </c>
       <c r="O13" t="n">
-        <v>237.0675397244578</v>
+        <v>237.067539724458</v>
       </c>
       <c r="P13" t="n">
-        <v>196.0819480644587</v>
+        <v>196.0819480644588</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.96500836578691</v>
+        <v>84.96500836578699</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>439.9005407892528</v>
       </c>
       <c r="M14" t="n">
-        <v>495.6858875100795</v>
+        <v>495.6858875100797</v>
       </c>
       <c r="N14" t="n">
-        <v>482.2209181469279</v>
+        <v>482.2209181469278</v>
       </c>
       <c r="O14" t="n">
         <v>402.5768425462533</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L15" t="n">
         <v>434.6690047095615</v>
@@ -35737,7 +35737,7 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N15" t="n">
-        <v>594.471513473326</v>
+        <v>106.558767736704</v>
       </c>
       <c r="O15" t="n">
         <v>467.5543544141732</v>
@@ -35746,7 +35746,7 @@
         <v>362.4463996494862</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.2299655677014</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.38083907498657</v>
+        <v>60.38083907498655</v>
       </c>
       <c r="K16" t="n">
         <v>165.2226868127684</v>
       </c>
       <c r="L16" t="n">
-        <v>241.0758965801754</v>
+        <v>241.075896580175</v>
       </c>
       <c r="M16" t="n">
         <v>260.6710328590443</v>
@@ -35825,7 +35825,7 @@
         <v>196.0819480644589</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.965008365787</v>
+        <v>84.96500836578699</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>439.9005407892528</v>
       </c>
       <c r="M17" t="n">
-        <v>495.6858875100795</v>
+        <v>495.6858875100794</v>
       </c>
       <c r="N17" t="n">
-        <v>482.2209181469279</v>
+        <v>482.2209181469278</v>
       </c>
       <c r="O17" t="n">
         <v>402.5768425462533</v>
@@ -35904,7 +35904,7 @@
         <v>311.1077384808645</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.9480726490868</v>
+        <v>155.9480726490869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L18" t="n">
         <v>434.6690047095615</v>
       </c>
       <c r="M18" t="n">
-        <v>565.9619789062594</v>
+        <v>78.04923316963747</v>
       </c>
       <c r="N18" t="n">
         <v>594.471513473326</v>
@@ -35983,7 +35983,7 @@
         <v>362.4463996494862</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.2299655677014</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>63.1707088398727</v>
+        <v>63.17070883987269</v>
       </c>
       <c r="L19" t="n">
         <v>139.0239186072797</v>
@@ -36059,7 +36059,7 @@
         <v>135.0155617515622</v>
       </c>
       <c r="P19" t="n">
-        <v>94.0299700915631</v>
+        <v>94.02997009156309</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>434.6690047095615</v>
       </c>
       <c r="M21" t="n">
-        <v>565.9619789062594</v>
+        <v>275.7173841602262</v>
       </c>
       <c r="N21" t="n">
-        <v>304.2269187272927</v>
+        <v>594.471513473326</v>
       </c>
       <c r="O21" t="n">
         <v>467.5543544141732</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>79.22996556770168</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L24" t="n">
         <v>434.6690047095615</v>
@@ -36448,7 +36448,7 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N24" t="n">
-        <v>594.471513473326</v>
+        <v>393.4391325217596</v>
       </c>
       <c r="O24" t="n">
         <v>467.5543544141732</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>79.22996556770168</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>434.6690047095615</v>
@@ -36685,7 +36685,7 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N27" t="n">
-        <v>594.471513473326</v>
+        <v>476.0333280504389</v>
       </c>
       <c r="O27" t="n">
         <v>467.5543544141732</v>
@@ -36694,7 +36694,7 @@
         <v>362.4463996494862</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>260.6710328590443</v>
       </c>
       <c r="N28" t="n">
-        <v>260.1665550216993</v>
+        <v>260.1665550216992</v>
       </c>
       <c r="O28" t="n">
         <v>237.067539724458</v>
@@ -36922,16 +36922,16 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N30" t="n">
-        <v>304.2269187272927</v>
+        <v>594.471513473326</v>
       </c>
       <c r="O30" t="n">
-        <v>467.5543544141732</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>362.4463996494862</v>
+        <v>342.0880083270373</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.38083907498654</v>
+        <v>60.38083907498657</v>
       </c>
       <c r="K31" t="n">
         <v>165.2226868127684</v>
@@ -37001,16 +37001,16 @@
         <v>260.6710328590443</v>
       </c>
       <c r="N31" t="n">
-        <v>260.1665550216992</v>
+        <v>260.1665550216993</v>
       </c>
       <c r="O31" t="n">
         <v>237.067539724458</v>
       </c>
       <c r="P31" t="n">
-        <v>196.0819480644588</v>
+        <v>196.0819480644589</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.96500836578697</v>
+        <v>84.965008365787</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>311.1077384808645</v>
       </c>
       <c r="Q32" t="n">
-        <v>155.9480726490868</v>
+        <v>155.9480726490869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>79.22996556770168</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L33" t="n">
         <v>434.6690047095615</v>
       </c>
       <c r="M33" t="n">
-        <v>565.9619789062594</v>
+        <v>167.2614469641045</v>
       </c>
       <c r="N33" t="n">
         <v>594.471513473326</v>
@@ -37168,7 +37168,7 @@
         <v>362.4463996494862</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L36" t="n">
-        <v>316.2308192866745</v>
+        <v>434.6690047095615</v>
       </c>
       <c r="M36" t="n">
-        <v>565.9619789062594</v>
+        <v>78.04923316963747</v>
       </c>
       <c r="N36" t="n">
         <v>594.471513473326</v>
@@ -37563,7 +37563,7 @@
         <v>311.1077384808645</v>
       </c>
       <c r="Q38" t="n">
-        <v>155.9480726490869</v>
+        <v>155.9480726490872</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.21221379446695</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>280.262346519268</v>
@@ -37630,19 +37630,19 @@
         <v>434.6690047095615</v>
       </c>
       <c r="M39" t="n">
-        <v>275.7173841602262</v>
+        <v>565.9619789062594</v>
       </c>
       <c r="N39" t="n">
         <v>594.471513473326</v>
       </c>
       <c r="O39" t="n">
-        <v>467.5543544141732</v>
+        <v>68.85382247201808</v>
       </c>
       <c r="P39" t="n">
         <v>362.4463996494862</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>120.3244685182454</v>
+        <v>120.3244685182453</v>
       </c>
       <c r="K41" t="n">
-        <v>313.9040943546296</v>
+        <v>313.9040943546297</v>
       </c>
       <c r="L41" t="n">
-        <v>439.9005407892528</v>
+        <v>439.9005407892529</v>
       </c>
       <c r="M41" t="n">
         <v>495.6858875100795</v>
@@ -37797,7 +37797,7 @@
         <v>402.5768425462533</v>
       </c>
       <c r="P41" t="n">
-        <v>311.1077384808645</v>
+        <v>311.1077384808646</v>
       </c>
       <c r="Q41" t="n">
         <v>155.9480726490869</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.21221379446695</v>
+        <v>89.21221379446696</v>
       </c>
       <c r="K42" t="n">
         <v>280.262346519268</v>
@@ -37870,16 +37870,16 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N42" t="n">
-        <v>594.471513473326</v>
+        <v>106.5587677367035</v>
       </c>
       <c r="O42" t="n">
-        <v>467.5543544141732</v>
+        <v>467.5543544141733</v>
       </c>
       <c r="P42" t="n">
-        <v>72.20180490345284</v>
+        <v>362.4463996494862</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>55.74626954634019</v>
+        <v>55.74626954634024</v>
       </c>
       <c r="K43" t="n">
-        <v>160.588117284122</v>
+        <v>160.5881172841221</v>
       </c>
       <c r="L43" t="n">
-        <v>236.441327051529</v>
+        <v>236.4413270515291</v>
       </c>
       <c r="M43" t="n">
         <v>256.036463330398</v>
       </c>
       <c r="N43" t="n">
-        <v>255.5319854930529</v>
+        <v>255.531985493053</v>
       </c>
       <c r="O43" t="n">
-        <v>232.4329701958116</v>
+        <v>232.4329701958117</v>
       </c>
       <c r="P43" t="n">
-        <v>191.4473785358124</v>
+        <v>191.4473785358125</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.33043883714062</v>
+        <v>80.33043883714068</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>120.3244685182452</v>
+        <v>120.3244685182453</v>
       </c>
       <c r="K44" t="n">
-        <v>313.9040943546296</v>
+        <v>313.9040943546297</v>
       </c>
       <c r="L44" t="n">
-        <v>439.9005407892528</v>
+        <v>439.9005407892529</v>
       </c>
       <c r="M44" t="n">
-        <v>495.6858875100797</v>
+        <v>495.6858875100795</v>
       </c>
       <c r="N44" t="n">
         <v>482.2209181469279</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5768425462533</v>
+        <v>402.5768425462537</v>
       </c>
       <c r="P44" t="n">
-        <v>311.1077384808645</v>
+        <v>311.1077384808646</v>
       </c>
       <c r="Q44" t="n">
         <v>155.9480726490869</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>79.22996556770168</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L45" t="n">
-        <v>434.6690047095615</v>
+        <v>35.96847276740602</v>
       </c>
       <c r="M45" t="n">
         <v>565.9619789062594</v>
@@ -38110,13 +38110,13 @@
         <v>594.471513473326</v>
       </c>
       <c r="O45" t="n">
-        <v>467.5543544141732</v>
+        <v>467.5543544141733</v>
       </c>
       <c r="P45" t="n">
         <v>362.4463996494862</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>55.74626954634019</v>
+        <v>55.74626954634022</v>
       </c>
       <c r="K46" t="n">
-        <v>160.588117284122</v>
+        <v>160.5881172841221</v>
       </c>
       <c r="L46" t="n">
         <v>236.441327051529</v>
@@ -38189,13 +38189,13 @@
         <v>255.5319854930529</v>
       </c>
       <c r="O46" t="n">
-        <v>232.4329701958116</v>
+        <v>232.4329701958117</v>
       </c>
       <c r="P46" t="n">
-        <v>191.4473785358124</v>
+        <v>191.4473785358125</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.33043883714062</v>
+        <v>80.33043883714065</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
